--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -44,6 +44,78 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-18.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -59,10 +131,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 12 August, 2025 9:50 AM</t>
+    <t>Tuesday, 12 August, 2025 9:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +793,236 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>20</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>21</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>25</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>33</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>36</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>37</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>170.28999999999999</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>40</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>41</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>42</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +1036,40 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -131,7 +131,19 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:54 AM</t>
+    <t xml:space="preserve">مسواك اسنان </t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 12 August, 2025 10:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -991,38 +1003,71 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>170.28999999999999</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>40</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>41</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>37</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>42</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>185.28999999999999</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1066,10 +1111,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -143,7 +143,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:01 AM</t>
+    <t>Tuesday, 12 August, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -143,7 +155,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:06 AM</t>
+    <t>Tuesday, 12 August, 2025 10:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,15 +1000,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1008,20 +1020,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1036,38 +1048,71 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>185.28999999999999</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>41</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>238.28999999999999</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1161,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -155,7 +155,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:14 AM</t>
+    <t>Tuesday, 12 August, 2025 10:15 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -128,15 +128,24 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>جل رويال</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
     <t>21:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -155,7 +164,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:15 AM</t>
+    <t>Tuesday, 12 August, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1027,21 +1036,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1053,66 +1062,99 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>238.28999999999999</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>48</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>40</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>49</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>278.29000000000002</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1166,10 +1208,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -119,15 +131,21 @@
     <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>53.00</t>
   </si>
   <si>
     <t>53.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>جل رويال</t>
   </si>
   <si>
@@ -164,7 +182,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:16 AM</t>
+    <t>Tuesday, 12 August, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -937,7 +955,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -947,11 +965,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
@@ -963,14 +981,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -987,7 +1005,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1020,7 +1038,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1036,21 +1054,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1062,28 +1080,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1095,66 +1113,132 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>278.29000000000002</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>50</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>46</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>51</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c t="s" r="Q17" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>46</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>363.29000000000002</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>58</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>59</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1297,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -182,7 +182,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:18 AM</t>
+    <t>Tuesday, 12 August, 2025 10:19 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -128,6 +128,30 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>OXITROPIL 1200 MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>SUEZ 50GM CREAM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -137,6 +161,18 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>URIPAN X.R. 10 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -149,9 +185,6 @@
     <t>جل رويال</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -182,7 +215,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:19 AM</t>
+    <t>Tuesday, 12 August, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1054,7 +1087,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1064,14 +1097,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1080,7 +1113,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1093,15 +1126,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1113,28 +1146,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1146,31 +1179,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1179,20 +1212,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1207,38 +1240,137 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>363.29000000000002</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>57</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>36</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>44</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>58</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>44</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>65</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>44</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>66</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>518.38999999999999</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>68</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>69</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>70</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1307,10 +1439,25 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:26 AM</t>
+    <t>Tuesday, 12 August, 2025 10:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>19.6800</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>SUEZ 50GM CREAM</t>
   </si>
   <si>
@@ -206,16 +218,13 @@
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:27 AM</t>
+    <t>Tuesday, 12 August, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1120,13 +1129,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1159,15 +1168,15 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1179,14 +1188,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1203,7 +1212,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1219,7 +1228,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1229,14 +1238,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1245,28 +1254,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1278,20 +1287,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1324,7 +1333,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1339,38 +1348,71 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>518.38999999999999</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>68</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>44</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>48</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>69</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>542.38999999999999</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>73</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1454,10 +1496,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:32 AM</t>
+    <t>Tuesday, 12 August, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CHOLEROSE 10MG 21 F.C.TAB</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -62,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -86,9 +113,6 @@
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>118.00</t>
   </si>
   <si>
@@ -224,7 +248,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:46 AM</t>
+    <t>Tuesday, 12 August, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -898,7 +922,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -908,14 +932,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -924,14 +948,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -941,14 +965,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -957,14 +981,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -974,14 +998,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -990,14 +1014,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1014,7 +1038,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1023,14 +1047,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1040,14 +1064,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1056,14 +1080,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1073,11 +1097,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1089,14 +1113,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1146,7 +1170,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1162,13 +1186,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1179,7 +1203,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1195,7 +1219,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1205,14 +1229,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1221,31 +1245,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,14 +1278,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1271,14 +1295,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1287,31 +1311,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1320,31 +1344,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,7 +1377,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1366,53 +1390,119 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>542.38999999999999</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>71</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>72</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
         <v>73</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>56</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>52</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>56</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>674.38999999999999</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>80</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>81</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1501,10 +1591,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -44,22 +44,43 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BETASERC 24MG 40 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
     <t>1:4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
   </si>
   <si>
     <t>CHOLEROSE 10MG 21 F.C.TAB</t>
@@ -74,9 +95,6 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -113,12 +131,6 @@
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -152,6 +164,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -248,7 +269,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:47 AM</t>
+    <t>Tuesday, 12 August, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -939,7 +960,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -948,14 +969,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -965,11 +986,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -981,14 +1002,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -998,14 +1019,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1014,14 +1035,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1038,7 +1059,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1047,7 +1068,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1064,14 +1085,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1080,14 +1101,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,14 +1118,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,14 +1134,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1130,11 +1151,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,14 +1184,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1179,14 +1200,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,14 +1217,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1212,14 +1233,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1229,11 +1250,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1245,28 +1266,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1278,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,11 +1316,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1311,14 +1332,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1349,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,31 +1365,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,31 +1398,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,31 +1431,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,66 +1464,165 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>48</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>63</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>674.38999999999999</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>79</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>80</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>63</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>81</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>59</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>63</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>867.38999999999999</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1601,10 +1721,25 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -197,6 +206,9 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>SUEZ 50GM CREAM</t>
   </si>
   <si>
@@ -209,6 +221,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -260,6 +281,24 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>كريم فريند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
@@ -269,7 +308,19 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:52 AM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>ملقاط كارت</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 12 August, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1306,7 +1357,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1316,14 +1367,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1332,14 +1383,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1349,14 +1400,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1365,28 +1416,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1398,14 +1449,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,11 +1466,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1431,31 +1482,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1464,14 +1515,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,11 +1532,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1497,28 +1548,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1530,31 +1581,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1563,66 +1614,297 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>48</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>67</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>84</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>85</v>
       </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>867.38999999999999</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>86</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>87</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>67</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>88</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>91</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>67</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>92</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>95</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>67</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>92</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>62</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>67</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>97</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>100</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>67</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>88</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>101</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>102</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>67</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>97</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1160.3900000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>103</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>104</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>105</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +2018,45 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -320,7 +320,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:57 AM</t>
+    <t>Tuesday, 12 August, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -128,6 +128,21 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
@@ -152,12 +167,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -200,12 +221,21 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -317,10 +347,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 12 August, 2025 10:58 AM</t>
+    <t>Tuesday, 12 August, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1192,7 +1219,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1202,14 +1229,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1218,14 +1245,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1235,14 +1262,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1251,14 +1278,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1268,11 +1295,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1284,14 +1311,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1301,14 +1328,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1317,14 +1344,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1334,14 +1361,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1350,14 +1377,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1367,14 +1394,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1383,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1423,7 +1450,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1433,11 +1460,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1449,14 +1476,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1466,14 +1493,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1482,28 +1509,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1515,14 +1542,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1532,11 +1559,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1548,14 +1575,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,11 +1592,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1588,13 +1615,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1605,7 +1632,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1621,7 +1648,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1654,13 +1681,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1693,7 +1720,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1704,7 +1731,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1720,21 +1747,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1746,28 +1773,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1786,21 +1813,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1812,28 +1839,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1845,66 +1872,165 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>69</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>77</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>110</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>77</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>98</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1160.3900000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>103</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>104</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>105</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>72</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>77</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>107</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1265.3900000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>112</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>113</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>114</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2053,10 +2179,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:59 AM</t>
+    <t>Tuesday, 12 August, 2025 11:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BETASERC 24MG 40 TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>218.00</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>4:4</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -149,9 +158,6 @@
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -221,9 +227,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -347,7 +350,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 11:02 AM</t>
+    <t>Tuesday, 12 August, 2025 11:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1024,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1031,14 +1034,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1054,7 +1057,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1064,11 +1067,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1080,14 +1083,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1104,7 +1107,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1137,7 +1140,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1153,7 +1156,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1163,11 +1166,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1179,14 +1182,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1196,14 +1199,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1219,7 +1222,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1229,14 +1232,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1245,14 +1248,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1262,14 +1265,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1278,14 +1281,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1295,14 +1298,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1311,7 +1314,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1328,14 +1331,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1344,14 +1347,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1361,14 +1364,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1377,14 +1380,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1394,11 +1397,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1410,14 +1413,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,14 +1430,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1443,14 +1446,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,14 +1463,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1476,14 +1479,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1493,11 +1496,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1509,14 +1512,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1526,14 +1529,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1542,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,14 +1562,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1575,14 +1578,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1595,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1615,24 +1618,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,31 +1644,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,7 +1677,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1691,14 +1694,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,14 +1710,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1724,14 +1727,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,14 +1743,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,14 +1760,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,31 +1776,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,31 +1809,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1839,31 +1842,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1872,31 +1875,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,31 +1908,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1938,31 +1941,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1971,66 +1974,99 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>112</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>73</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>78</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>108</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1265.3900000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>112</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1289.3900000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>113</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
         <v>114</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>115</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2194,10 +2230,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -128,6 +140,18 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
   </si>
   <si>
@@ -197,9 +221,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>OSTEOCARE LIQUID 120 ML</t>
   </si>
   <si>
@@ -230,9 +251,6 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -302,6 +320,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -350,7 +377,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 11:04 AM</t>
+    <t>Tuesday, 12 August, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1189,7 +1216,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1199,14 +1226,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1215,7 +1242,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1232,14 +1259,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1265,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1288,7 +1315,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1298,14 +1325,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1314,14 +1341,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1331,14 +1358,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1347,7 +1374,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1364,14 +1391,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1380,7 +1407,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1397,11 +1424,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1413,14 +1440,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1430,14 +1457,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1446,14 +1473,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1463,14 +1490,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1479,14 +1506,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1496,14 +1523,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1529,11 +1556,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1552,7 +1579,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1562,11 +1589,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1578,14 +1605,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1595,14 +1622,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1628,11 +1655,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1644,28 +1671,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1694,11 +1721,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1710,7 +1737,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1723,7 +1750,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1750,7 +1777,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1760,14 +1787,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1776,7 +1803,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1793,11 +1820,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1809,20 +1836,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1833,7 +1860,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1849,21 +1876,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1875,28 +1902,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1908,31 +1935,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1941,20 +1968,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1987,15 +2014,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2007,66 +2034,165 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>116</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>78</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>84</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>117</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>119</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>120</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>84</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>108</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>109</v>
       </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1289.3900000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>113</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>114</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>115</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>121</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>44</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>84</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>117</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1372.3900000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>122</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>123</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>124</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2235,10 +2361,25 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -377,7 +386,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 11:25 AM</t>
+    <t>Tuesday, 12 August, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1678,7 +1687,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1711,7 +1720,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,11 +1730,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1737,28 +1746,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1770,20 +1779,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1810,7 +1819,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1843,7 +1852,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1853,14 +1862,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1878,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1893,7 +1902,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1909,13 +1918,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1942,13 +1951,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1959,7 +1968,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1975,24 +1984,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,28 +2010,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2034,28 +2043,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2067,28 +2076,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2107,21 +2116,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2133,66 +2142,99 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1372.3900000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>122</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>123</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>124</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>44</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>87</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>120</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1439.3900000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>125</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>126</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>127</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2376,10 +2418,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -386,7 +386,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 11:27 AM</t>
+    <t>Tuesday, 12 August, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -200,9 +209,6 @@
     <t>ITRANOX 100MG 5 CAPS.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -311,12 +317,21 @@
     <t>57.4200</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
@@ -329,13 +344,22 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>قطن 100 جم</t>
@@ -365,9 +389,6 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
@@ -386,7 +407,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 11:30 AM</t>
+    <t>Tuesday, 12 August, 2025 11:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1291,7 +1312,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1301,14 +1322,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1317,14 +1338,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1341,7 +1362,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1350,14 +1371,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1367,14 +1388,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1383,14 +1404,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1400,14 +1421,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1416,14 +1437,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1433,14 +1454,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1456,7 +1477,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1489,7 +1510,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1522,7 +1543,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1532,14 +1553,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1548,14 +1569,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1565,11 +1586,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1588,7 +1609,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1602,10 +1623,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1614,14 +1635,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1631,14 +1652,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1647,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1664,14 +1685,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1687,7 +1708,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1697,11 +1718,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1713,14 +1734,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1730,11 +1751,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1746,14 +1767,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1763,11 +1784,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1779,28 +1800,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1812,28 +1833,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,11 +1883,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1928,14 +1949,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1944,20 +1965,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1968,7 +1989,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1990,18 +2011,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2010,28 +2031,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2043,28 +2064,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2076,20 +2097,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2100,7 +2121,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2109,28 +2130,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2142,28 +2163,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2175,66 +2196,165 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1439.3900000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>125</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>126</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>80</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>89</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>127</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>129</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>130</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>89</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>119</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>131</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>47</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>89</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>127</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1473.0999999999999</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>132</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>133</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>134</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2423,10 +2543,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -263,6 +272,15 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -281,12 +299,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -407,7 +419,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 11:33 AM</t>
+    <t>Tuesday, 12 August, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1522,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1543,7 +1555,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,11 +1565,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1569,14 +1581,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,14 +1598,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1609,7 +1621,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1623,7 +1635,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1635,14 +1647,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,14 +1664,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1675,7 +1687,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,14 +1697,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1713,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1718,14 +1730,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1734,14 +1746,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,11 +1763,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1774,7 +1786,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,11 +1829,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1833,28 +1845,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1883,11 +1895,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1899,7 +1911,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1912,15 +1924,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1982,14 +1994,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2019,10 +2031,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2031,31 +2043,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,7 +2076,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2077,15 +2089,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2097,31 +2109,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,28 +2142,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2163,31 +2175,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2196,20 +2208,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2229,20 +2241,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2269,21 +2281,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2295,66 +2307,132 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1473.0999999999999</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>133</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>134</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>95</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>123</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>135</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>47</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>95</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>131</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>132</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>133</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>134</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1636.0999999999999</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>136</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>137</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>138</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2558,10 +2636,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -71,9 +83,6 @@
     <t>109.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
@@ -221,6 +230,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -350,9 +368,6 @@
     <t>جل رويال</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -374,6 +389,15 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -383,9 +407,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>كريم فريند لافلي الكبير</t>
   </si>
   <si>
@@ -419,7 +440,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 11:56 AM</t>
+    <t>Tuesday, 12 August, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1077,7 +1098,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1086,14 +1107,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1126,7 +1147,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1136,14 +1157,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1152,14 +1173,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1192,7 +1213,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1202,14 +1223,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1218,14 +1239,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1235,14 +1256,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1251,14 +1272,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1268,14 +1289,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1284,14 +1305,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1324,7 +1345,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1341,7 +1362,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1357,7 +1378,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1367,14 +1388,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1383,14 +1404,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1407,7 +1428,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1416,14 +1437,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1433,14 +1454,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1449,14 +1470,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1466,14 +1487,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1482,14 +1503,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1499,14 +1520,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1522,7 +1543,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1539,7 +1560,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1555,7 +1576,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1572,7 +1593,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1588,7 +1609,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1598,14 +1619,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1614,14 +1635,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1631,7 +1652,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1654,7 +1675,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1668,10 +1689,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1680,14 +1701,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1697,14 +1718,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1713,14 +1734,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1734,10 +1755,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1746,14 +1767,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1763,14 +1784,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1786,7 +1807,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1796,14 +1817,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1829,14 +1850,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1852,7 +1873,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1869,7 +1890,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1885,7 +1906,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1911,31 +1932,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,14 +1982,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1977,31 +1998,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2017,7 +2038,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2043,14 +2064,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2060,11 +2081,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2116,24 +2137,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2142,31 +2163,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2182,24 +2203,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2208,31 +2229,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2241,31 +2262,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2274,20 +2295,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2298,7 +2319,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2307,20 +2328,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2328,10 +2349,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2340,31 +2361,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2373,66 +2394,165 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1636.0999999999999</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>136</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>137</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>89</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>101</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>138</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>140</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>141</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>101</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>131</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>142</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>50</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>101</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>138</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1733.0999999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>143</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>144</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>145</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2646,10 +2766,25 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 12:00 PM</t>
+    <t>Tuesday, 12 August, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>زيت حرير الكبير</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -422,6 +431,9 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
@@ -431,6 +443,9 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -440,7 +455,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 12:01 PM</t>
+    <t>Tuesday, 12 August, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2236,7 +2251,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2286,7 +2301,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2302,7 +2317,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2319,7 +2334,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2335,7 +2350,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2345,11 +2360,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2382,7 +2397,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2394,14 +2409,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2411,11 +2426,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2444,11 +2459,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2467,7 +2482,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2477,7 +2492,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2510,49 +2525,148 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1733.0999999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>144</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>50</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>101</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>137</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>145</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>146</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>101</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>134</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>147</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>50</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>101</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>142</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>143</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>144</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>145</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>1878.0999999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>148</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>149</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>150</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2781,10 +2895,25 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>BETASERC 24MG 40 TABS</t>
   </si>
   <si>
@@ -104,6 +113,18 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CHOLEROSE 10MG 21 F.C.TAB</t>
   </si>
   <si>
@@ -131,9 +152,6 @@
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -317,6 +335,15 @@
     <t>0</t>
   </si>
   <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -455,7 +482,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 12:11 PM</t>
+    <t>Tuesday, 12 August, 2025 12:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1179,7 +1206,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1195,7 +1222,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1205,14 +1232,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1221,14 +1248,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1245,7 +1272,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1261,7 +1288,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1271,11 +1298,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1287,14 +1314,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1304,11 +1331,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1320,14 +1347,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1337,14 +1364,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1353,14 +1380,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1377,7 +1404,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1393,7 +1420,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1410,7 +1437,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1426,7 +1453,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1436,14 +1463,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1452,7 +1479,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1469,14 +1496,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1485,14 +1512,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1502,14 +1529,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1518,14 +1545,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1535,14 +1562,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1551,14 +1578,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1568,14 +1595,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1584,14 +1611,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1601,14 +1628,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1624,7 +1651,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1667,11 +1694,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1683,7 +1710,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1700,14 +1727,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1716,14 +1743,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1733,14 +1760,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1756,7 +1783,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1770,7 +1797,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1782,14 +1809,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1799,14 +1826,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1815,14 +1842,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1836,7 +1863,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1848,14 +1875,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1865,11 +1892,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1888,7 +1915,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1898,14 +1925,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1914,14 +1941,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,11 +1958,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1954,7 +1981,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,11 +2024,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2013,28 +2040,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2046,14 +2073,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,11 +2090,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2079,7 +2106,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2092,15 +2119,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2119,24 +2146,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,14 +2172,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,14 +2189,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,7 +2205,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2195,11 +2222,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2211,31 +2238,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2244,31 +2271,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2277,7 +2304,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2290,15 +2317,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2310,31 +2337,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2350,13 +2377,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2383,21 +2410,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2416,24 +2443,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2442,28 +2469,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2475,24 +2502,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2508,28 +2535,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2541,28 +2568,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2574,24 +2601,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2607,66 +2634,165 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>153</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>56</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>107</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>146</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>154</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>155</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>107</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>143</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>1878.0999999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>148</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>149</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>150</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>156</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>56</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>107</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>151</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>1963.1949999999999</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>157</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>158</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>159</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2910,10 +3036,25 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -245,9 +254,6 @@
     <t>ITRANOX 100MG 5 CAPS.</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -413,7 +419,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -482,7 +488,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 12:38 PM</t>
+    <t>Tuesday, 12 August, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1189,7 +1195,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1199,11 +1205,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>20</v>
@@ -1215,7 +1221,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1232,14 +1238,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1248,14 +1254,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1272,7 +1278,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1288,7 +1294,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1298,14 +1304,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1314,14 +1320,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1338,7 +1344,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1371,7 +1377,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1404,7 +1410,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1420,7 +1426,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1430,11 +1436,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1446,14 +1452,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1463,14 +1469,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1479,7 +1485,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1496,7 +1502,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1519,7 +1525,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1529,14 +1535,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1545,14 +1551,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1569,7 +1575,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1578,14 +1584,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1595,14 +1601,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1611,14 +1617,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1628,14 +1634,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1644,14 +1650,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1661,14 +1667,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1684,7 +1690,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1717,7 +1723,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1750,7 +1756,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1760,11 +1766,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1776,14 +1782,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1793,14 +1799,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1809,14 +1815,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1826,11 +1832,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1842,14 +1848,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,11 +1865,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1882,7 +1888,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1896,10 +1902,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1908,14 +1914,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1925,14 +1931,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1941,14 +1947,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,14 +1964,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1981,7 +1987,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,11 +1997,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2007,14 +2013,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,11 +2030,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2040,14 +2046,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2057,11 +2063,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2073,14 +2079,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,11 +2096,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2106,28 +2112,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2146,24 +2152,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2172,31 +2178,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2205,14 +2211,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,11 +2228,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2238,14 +2244,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2255,14 +2261,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2271,14 +2277,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2288,14 +2294,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2321,14 +2327,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2344,17 +2350,17 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2377,21 +2383,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2403,28 +2409,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2436,31 +2442,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2469,31 +2475,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,28 +2508,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2535,28 +2541,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2568,28 +2574,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2601,28 +2607,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2634,28 +2640,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2667,28 +2673,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2700,28 +2706,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2740,59 +2746,92 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>1963.1949999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>157</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>158</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>59</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>109</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>153</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2005.1949999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
         <v>159</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>160</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>161</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3051,10 +3090,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -371,9 +383,6 @@
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -419,7 +428,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -488,7 +497,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 12:42 PM</t>
+    <t>Tuesday, 12 August, 2025 12:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1459,7 +1468,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1469,14 +1478,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1485,14 +1494,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1502,14 +1511,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1518,7 +1527,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1535,11 +1544,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1575,7 +1584,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1591,7 +1600,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1624,7 +1633,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1634,7 +1643,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1657,7 +1666,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1667,14 +1676,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1700,14 +1709,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1716,7 +1725,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1733,11 +1742,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1766,11 +1775,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,11 +1808,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,11 +1874,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1881,14 +1890,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1898,11 +1907,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1971,7 +1980,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,11 +2039,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,11 +2072,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,11 +2105,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,11 +2138,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2145,28 +2154,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2178,31 +2187,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,31 +2220,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,11 +2270,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2301,7 +2310,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2317,7 +2326,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2376,28 +2385,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2409,24 +2418,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2449,13 +2458,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2466,7 +2475,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2488,7 +2497,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2499,7 +2508,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2515,13 +2524,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2532,7 +2541,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2548,21 +2557,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2587,7 +2596,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2595,7 +2604,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2607,28 +2616,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2640,28 +2649,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2673,28 +2682,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2713,21 +2722,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2739,28 +2748,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2772,66 +2781,99 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2005.1949999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>159</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>160</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>161</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>63</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>113</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>156</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2032.9549999999999</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>162</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>163</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>164</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3095,10 +3137,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 12:59 PM</t>
+    <t>Tuesday, 12 August, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>ITRANOX 100MG 5 CAPS.</t>
   </si>
   <si>
@@ -365,12 +374,6 @@
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
     <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -497,7 +500,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 1:05 PM</t>
+    <t>Tuesday, 12 August, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1841,11 +1844,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1857,14 +1860,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,14 +1877,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1897,7 +1900,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1930,7 +1933,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1944,7 +1947,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1956,14 +1959,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1973,14 +1976,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1996,7 +1999,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2006,14 +2009,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2022,14 +2025,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2039,14 +2042,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2055,14 +2058,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2072,11 +2075,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2095,7 +2098,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2128,7 +2131,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2161,7 +2164,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,11 +2174,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2187,28 +2190,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2220,31 +2223,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2260,13 +2263,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2277,7 +2280,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2293,7 +2296,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,14 +2339,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2352,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,14 +2372,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2402,14 +2405,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2418,28 +2421,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2451,7 +2454,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2464,15 +2467,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2484,31 +2487,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2517,7 +2520,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2530,18 +2533,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2550,31 +2553,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,28 +2586,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2616,28 +2619,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2649,28 +2652,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2689,21 +2692,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2722,21 +2725,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2748,28 +2751,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2788,21 +2791,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2814,66 +2817,99 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>162</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>63</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>116</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>157</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2032.9549999999999</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>162</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2081.9549999999999</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
         <v>163</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
         <v>164</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>165</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3142,10 +3178,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -500,7 +500,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 1:07 PM</t>
+    <t>Tuesday, 12 August, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -236,6 +245,15 @@
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
@@ -245,6 +263,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -314,9 +341,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>123.00</t>
-  </si>
-  <si>
     <t>19.6800</t>
   </si>
   <si>
@@ -500,7 +524,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 1:09 PM</t>
+    <t>Tuesday, 12 August, 2025 1:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1669,7 +1693,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1679,14 +1703,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1695,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1712,14 +1736,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1728,14 +1752,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1745,14 +1769,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,7 +1809,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1801,7 +1825,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1834,7 +1858,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1851,7 +1875,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1877,11 +1901,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1893,7 +1917,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1910,14 +1934,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1926,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1943,14 +1967,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1976,14 +2000,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1992,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2009,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2065,7 +2089,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2075,14 +2099,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2131,7 +2155,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2164,7 +2188,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2174,11 +2198,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2207,11 +2231,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2223,28 +2247,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2256,31 +2280,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2306,11 +2330,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2322,7 +2346,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2335,15 +2359,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2355,31 +2379,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,7 +2445,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2438,11 +2462,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2454,31 +2478,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2494,24 +2518,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,7 +2544,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2533,18 +2557,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2560,24 +2584,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2586,28 +2610,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2619,31 +2643,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,31 +2676,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2685,28 +2709,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2725,17 +2749,17 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2751,28 +2775,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2784,28 +2808,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2817,24 +2841,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2850,66 +2874,165 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2081.9549999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>163</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>164</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>167</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>63</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>124</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>160</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>168</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>169</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>124</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>157</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>170</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>63</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>124</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>165</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2223.5250000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>171</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>172</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>173</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3183,10 +3306,25 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CHOLEROSE 10MG 21 F.C.TAB</t>
   </si>
   <si>
@@ -159,6 +171,18 @@
   </si>
   <si>
     <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -1446,7 +1470,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1479,7 +1503,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1505,14 +1529,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1528,7 +1552,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1538,11 +1562,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1554,14 +1578,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1575,10 +1599,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,14 +1611,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,14 +1628,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1620,14 +1644,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,14 +1661,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1653,7 +1677,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1670,14 +1694,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1693,7 +1717,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1727,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1719,14 +1743,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1736,14 +1760,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1752,14 +1776,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1769,11 +1793,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1785,14 +1809,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,14 +1826,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,14 +1842,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,14 +1859,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1851,14 +1875,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1868,11 +1892,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1884,7 +1908,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1901,11 +1925,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1917,7 +1941,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1934,14 +1958,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1950,7 +1974,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1967,11 +1991,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -1983,14 +2007,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,11 +2024,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2016,14 +2040,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2057,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2073,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2090,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,11 +2123,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2115,14 +2139,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2156,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2172,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,11 +2189,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2181,14 +2205,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,11 +2222,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2255,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2271,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,11 +2288,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2280,14 +2304,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,11 +2321,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2313,7 +2337,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2330,11 +2354,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2346,28 +2370,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2379,31 +2403,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,28 +2436,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2445,31 +2469,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2495,14 +2519,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2528,14 +2552,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,14 +2585,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,31 +2601,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,28 +2634,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2643,31 +2667,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2676,31 +2700,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,31 +2733,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2742,31 +2766,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2775,28 +2799,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2808,28 +2832,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2841,28 +2865,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2874,28 +2898,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2907,28 +2931,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2940,28 +2964,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -2973,66 +2997,132 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2223.5250000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>171</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>172</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>176</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>177</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>132</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>165</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>178</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>71</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>132</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>173</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2269.5250000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>179</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>180</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>181</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3321,10 +3411,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -548,7 +548,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 1:14 PM</t>
+    <t>Tuesday, 12 August, 2025 1:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -443,45 +443,45 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>جل رويال</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>زيت حرير الكبير</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>ZYRTEC 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>جل رويال</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>زيت حرير الكبير</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -548,7 +548,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 1:16 PM</t>
+    <t>Tuesday, 12 August, 2025 1:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2622,10 +2622,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2717,11 +2717,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2750,14 +2750,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>144</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2905,7 +2905,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="65" ht="24.75" customHeight="1">
       <c r="P65" s="13">
-        <v>2269.5250000000001</v>
+        <v>2286.355</v>
       </c>
       <c r="Q65" s="13"/>
     </row>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -476,54 +476,54 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>كريم فريند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>فيانسيه كريم بخاخ</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>كريم فريند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
@@ -548,7 +548,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 1:19 PM</t>
+    <t>Tuesday, 12 August, 2025 2:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2754,10 +2754,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>156</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2783,11 +2783,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>120</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2816,11 +2816,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2832,14 +2832,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2865,14 +2865,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2882,11 +2882,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2898,14 +2898,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2915,11 +2915,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3014,11 +3014,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3092,7 +3092,7 @@
     </row>
     <row r="65" ht="24.75" customHeight="1">
       <c r="P65" s="13">
-        <v>2286.355</v>
+        <v>2296.355</v>
       </c>
       <c r="Q65" s="13"/>
     </row>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -548,7 +557,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 2:16 PM</t>
+    <t>Tuesday, 12 August, 2025 2:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2014,7 +2023,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2047,7 +2056,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2090,11 +2099,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2146,7 +2155,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2179,7 +2188,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2193,7 +2202,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2245,7 +2254,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2344,7 +2353,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2377,7 +2386,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2410,7 +2419,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2436,28 +2445,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2469,31 +2478,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2509,24 +2518,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,11 +2561,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2575,7 +2584,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2592,7 +2601,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2608,7 +2617,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2618,11 +2627,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>61</v>
@@ -2641,7 +2650,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2667,28 +2676,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2700,7 +2709,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2713,11 +2722,11 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2740,13 +2749,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2754,10 +2763,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2779,7 +2788,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2787,10 +2796,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>120</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2806,13 +2815,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2823,7 +2832,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2839,21 +2848,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2878,7 +2887,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2886,7 +2895,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2898,28 +2907,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2931,28 +2940,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2964,28 +2973,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3004,21 +3013,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3030,28 +3039,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3063,66 +3072,99 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2296.355</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>179</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>180</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>181</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>71</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>135</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>176</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2552.355</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>182</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>183</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>184</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3421,10 +3463,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
@@ -344,6 +356,12 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -485,7 +503,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -557,7 +575,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 2:27 PM</t>
+    <t>Tuesday, 12 August, 2025 2:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1396,7 +1414,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1406,14 +1424,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1422,14 +1440,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1446,7 +1464,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1512,7 +1530,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1545,7 +1563,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1604,14 +1622,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1627,7 +1645,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1637,14 +1655,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1653,14 +1671,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1670,14 +1688,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1686,7 +1704,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1703,11 +1721,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1719,14 +1737,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1743,7 +1761,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1759,7 +1777,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1792,7 +1810,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1809,7 +1827,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1818,14 +1836,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1835,14 +1853,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1858,7 +1876,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1868,14 +1886,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,11 +1919,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1917,7 +1935,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1934,14 +1952,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,7 +2034,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2033,11 +2051,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2066,11 +2084,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2099,11 +2117,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2115,7 +2133,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2132,11 +2150,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2181,14 +2199,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,11 +2216,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2214,14 +2232,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,14 +2249,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2247,14 +2265,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,14 +2282,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2280,14 +2298,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2297,11 +2315,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2320,7 +2338,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,11 +2348,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2346,14 +2364,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2396,11 +2414,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2419,7 +2437,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2462,11 +2480,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2478,28 +2496,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2511,31 +2529,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2544,28 +2562,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2577,31 +2595,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2610,14 +2628,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2627,14 +2645,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2650,7 +2668,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2660,14 +2678,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2683,7 +2701,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2693,14 +2711,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2709,31 +2727,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,20 +2760,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2763,7 +2781,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2775,31 +2793,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2815,13 +2833,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2832,7 +2850,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2848,13 +2866,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2862,10 +2880,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2881,24 +2899,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2914,21 +2932,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2940,28 +2958,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2980,21 +2998,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3006,20 +3024,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3039,28 +3057,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3072,28 +3090,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3105,20 +3123,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3133,38 +3151,104 @@
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2552.355</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>185</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>186</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>141</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>173</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>187</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>75</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>141</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>182</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>183</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>184</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2645.2350000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>188</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>189</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>190</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3468,10 +3552,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>19.6800</t>
   </si>
   <si>
+    <t>PEPZOL 20 MG MR 14 CAP</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -446,6 +455,15 @@
     <t>17.0950</t>
   </si>
   <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -575,7 +593,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 2:29 PM</t>
+    <t>Tuesday, 12 August, 2025 4:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2404,7 +2422,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2414,11 +2432,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2447,11 +2465,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2470,7 +2488,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2503,7 +2521,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2536,7 +2554,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2562,28 +2580,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2595,31 +2613,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2635,24 +2653,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,31 +2679,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2734,7 +2752,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2767,7 +2785,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2777,14 +2795,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2793,31 +2811,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,20 +2844,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2847,7 +2865,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2859,31 +2877,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>164</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2899,13 +2917,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2916,7 +2934,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2932,13 +2950,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2946,10 +2964,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2965,24 +2983,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2998,21 +3016,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3024,28 +3042,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3064,21 +3082,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3090,20 +3108,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3123,28 +3141,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3156,28 +3174,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3189,7 +3207,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3202,7 +3220,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3217,38 +3235,104 @@
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2645.2350000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>191</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>192</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>144</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>179</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>193</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>75</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>144</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>188</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>189</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>190</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2757.2350000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>194</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>195</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>196</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3562,10 +3646,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -74,342 +74,357 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>BETASERC 24MG 40 TABS</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-18.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>24.00</t>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>OXITROPIL 1200 MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>PEPZOL 20 MG MR 14 CAP</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>AQUA PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>BETASERC 24MG 40 TABS</t>
-  </si>
-  <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-18.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 5 CAPS.</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LASIX 20MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>OXITROPIL 1200 MG 60 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>19.6800</t>
-  </si>
-  <si>
-    <t>PEPZOL 20 MG MR 14 CAP</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -500,6 +515,12 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>جل رويال</t>
   </si>
   <si>
@@ -593,7 +614,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 4:15 PM</t>
+    <t>Tuesday, 12 August, 2025 4:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,7 +1321,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1310,11 +1331,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>20</v>
@@ -1326,7 +1347,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1343,14 +1364,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1359,14 +1380,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1383,7 +1404,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1432,7 +1453,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1442,14 +1463,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1458,14 +1479,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1482,7 +1503,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1548,7 +1569,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1581,7 +1602,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1640,14 +1661,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1663,7 +1684,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1673,14 +1694,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1722,7 +1743,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1739,11 +1760,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1755,14 +1776,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1772,14 +1793,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1805,11 +1826,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1821,7 +1842,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1838,14 +1859,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1871,11 +1892,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1904,7 +1925,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1937,11 +1958,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1960,7 +1981,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2036,14 +2057,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2102,11 +2123,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2135,11 +2156,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2168,11 +2189,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2191,7 +2212,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2201,11 +2222,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2250,14 +2271,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2271,10 +2292,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2323,7 +2344,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2356,7 +2377,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2373,7 +2394,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2389,7 +2410,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2399,11 +2420,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,11 +2453,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2488,7 +2509,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2521,7 +2542,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2564,11 +2585,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2580,7 +2601,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2597,11 +2618,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2613,28 +2634,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2646,31 +2667,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2686,24 +2707,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2712,31 +2733,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2745,31 +2766,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2861,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2884,24 +2905,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2910,24 +2931,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2950,24 +2971,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2976,31 +2997,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3009,28 +3030,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3042,31 +3063,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3075,31 +3096,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3108,20 +3129,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3141,24 +3162,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3181,21 +3202,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3207,28 +3228,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3240,24 +3261,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3273,66 +3294,165 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>197</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>74</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>149</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>189</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2757.2350000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>194</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>198</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>199</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>149</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>186</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>200</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>74</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>149</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
         <v>195</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>196</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q72" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3178.2350000000001</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>201</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>202</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>203</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3656,10 +3776,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -98,9 +107,6 @@
     <t>1:4</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -371,6 +377,9 @@
     <t>44.00</t>
   </si>
   <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>LASIX 20MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -386,6 +395,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -461,6 +479,15 @@
     <t>0</t>
   </si>
   <si>
+    <t>SULPEPTA 25MGTAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>TEMPO COOL</t>
   </si>
   <si>
@@ -614,7 +641,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 4:58 PM</t>
+    <t>Tuesday, 12 August, 2025 5:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1338,7 +1365,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1371,7 +1398,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1387,7 +1414,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1397,14 +1424,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1413,14 +1440,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1430,11 +1457,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1446,14 +1473,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1463,14 +1490,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1479,14 +1506,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1496,14 +1523,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1529,11 +1556,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1545,14 +1572,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1562,14 +1589,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1578,14 +1605,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1595,14 +1622,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1628,11 +1655,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1644,14 +1671,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1661,14 +1688,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1727,14 +1754,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1760,11 +1787,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1776,14 +1803,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1793,14 +1820,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1809,14 +1836,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1826,11 +1853,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1842,14 +1869,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,14 +1886,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1875,14 +1902,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1908,14 +1935,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,14 +1952,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,14 +2051,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2057,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2073,14 +2100,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,14 +2117,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,14 +2133,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2150,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,11 +2183,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2172,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2189,11 +2216,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,11 +2249,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2255,11 +2282,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2271,14 +2298,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,11 +2315,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2321,14 +2348,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2344,7 +2371,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2410,7 +2437,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2424,7 +2451,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,11 +2480,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,11 +2513,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2509,7 +2536,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2542,7 +2569,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,14 +2579,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,11 +2612,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2618,7 +2645,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2641,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,11 +2711,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2700,28 +2727,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2733,31 +2760,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,31 +2793,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2806,24 +2833,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,31 +2859,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,31 +2892,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2915,14 +2942,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2938,7 +2965,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2948,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2964,31 +2991,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,31 +3024,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,28 +3057,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3063,31 +3090,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,31 +3123,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3136,13 +3163,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3169,24 +3196,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3202,24 +3229,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3228,28 +3255,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3268,17 +3295,17 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3294,28 +3321,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3327,28 +3354,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3360,24 +3387,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3393,66 +3420,165 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3178.2350000000001</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>201</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>202</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>203</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>206</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>76</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>155</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>198</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>207</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>208</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>155</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>195</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>209</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>76</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>155</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>204</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3344.0549999999998</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>210</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>211</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>212</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3791,10 +3917,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 5:05 PM</t>
+    <t>Tuesday, 12 August, 2025 5:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -101,6 +101,21 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
@@ -158,9 +173,6 @@
     <t>CHOLEROSE 10MG 21 F.C.TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -239,231 +248,243 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-18.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>OXITROPIL 1200 MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>PEPZOL 20 MG MR 14 CAP</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-18.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>339.00</t>
-  </si>
-  <si>
-    <t>339.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 5 CAPS.</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>LASIX 20MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>OXITROPIL 1200 MG 60 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>19.6800</t>
-  </si>
-  <si>
-    <t>PEPZOL 20 MG MR 14 CAP</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -554,6 +575,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>53:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>زيت حرير الكبير</t>
   </si>
   <si>
@@ -596,7 +626,13 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>20.00</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
   </si>
   <si>
     <t>كريم فريند لافلي الكبير</t>
@@ -614,21 +650,15 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
@@ -641,7 +671,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 5:12 PM</t>
+    <t>Tuesday, 12 August, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1457,14 +1487,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1473,14 +1503,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1490,11 +1520,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1506,14 +1536,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1523,14 +1553,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1539,14 +1569,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1556,14 +1586,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1572,14 +1602,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1589,11 +1619,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1605,14 +1635,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1622,14 +1652,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1638,14 +1668,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1662,7 +1692,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1721,14 +1751,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1744,7 +1774,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1754,14 +1784,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1777,7 +1807,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,14 +1817,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,7 +1833,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1820,7 +1850,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1843,7 +1873,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1860,7 +1890,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1876,7 +1906,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,11 +1916,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1902,14 +1932,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1926,7 +1956,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1935,14 +1965,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1982,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1975,7 +2005,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +2015,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,14 +2031,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,14 +2048,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2034,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2081,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2067,14 +2097,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2114,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,14 +2130,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2124,7 +2154,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2140,7 +2170,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2157,7 +2187,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2173,7 +2203,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2190,7 +2220,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2206,7 +2236,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2239,7 +2269,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,11 +2279,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2265,14 +2295,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,11 +2312,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2305,7 +2335,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2338,7 +2368,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,11 +2378,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2364,14 +2394,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,11 +2411,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2404,7 +2434,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,14 +2444,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,14 +2460,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,14 +2477,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2470,7 +2500,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2487,7 +2517,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2503,7 +2533,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2517,10 +2547,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,14 +2559,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,14 +2576,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2569,7 +2599,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2609,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2602,7 +2632,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2642,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2635,7 +2665,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,11 +2675,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2661,14 +2691,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,7 +2708,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2701,7 +2731,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2734,7 +2764,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,11 +2807,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2793,28 +2823,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2826,7 +2856,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2839,18 +2869,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,31 +2889,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,28 +2922,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2925,31 +2955,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,31 +2988,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,14 +3021,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,14 +3038,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,14 +3054,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3045,10 +3075,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3087,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3104,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,31 +3120,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,28 +3153,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3156,28 +3186,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3189,31 +3219,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,31 +3252,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,28 +3285,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3288,20 +3318,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3309,10 +3339,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3321,20 +3351,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3345,7 +3375,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3361,21 +3391,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3387,24 +3417,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3420,28 +3450,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3453,28 +3483,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3486,28 +3516,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3519,66 +3549,231 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3344.0549999999998</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>61</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>162</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>91</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>215</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>96</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>162</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>206</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>216</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>157</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>162</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>210</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>211</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>212</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q78" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>217</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>218</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>162</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>190</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>219</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>157</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>162</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>206</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3484.5149999999999</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>220</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>221</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>222</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3932,10 +4127,35 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>28.0000</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
   </si>
   <si>
     <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
@@ -2764,7 +2767,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,11 +2777,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2790,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2807,11 +2810,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2823,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,11 +2843,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2856,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,11 +2876,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2896,21 +2899,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2922,31 +2925,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2955,28 +2958,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2988,28 +2991,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3021,31 +3024,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3061,7 +3064,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,11 +3074,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3120,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3137,11 +3140,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3170,14 +3173,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3186,28 +3189,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3219,28 +3222,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3252,28 +3255,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3285,28 +3288,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3318,31 +3321,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>196</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3351,7 +3354,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3364,18 +3367,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>96</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3384,31 +3387,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3417,28 +3420,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3450,28 +3453,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3483,28 +3486,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3516,28 +3519,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3556,21 +3559,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3589,21 +3592,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3622,21 +3625,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3655,21 +3658,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3688,21 +3691,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3714,66 +3717,99 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>220</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>158</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>163</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>207</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3484.5149999999999</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>220</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3508.5149999999999</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
         <v>221</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
         <v>222</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>223</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4152,10 +4188,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -224,6 +236,9 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:1</t>
+  </si>
+  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -290,7 +305,16 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
   </si>
   <si>
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
@@ -311,9 +335,6 @@
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>192.00</t>
   </si>
   <si>
@@ -416,7 +437,10 @@
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t>OSTEOCARE LIQUID 120 ML</t>
@@ -437,6 +461,18 @@
     <t>19.6800</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PEPZOL 20 MG MR 14 CAP</t>
   </si>
   <si>
@@ -485,186 +521,189 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>SUEZ 50GM CREAM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>SULPEPTA 25MGTAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>URIPAN X.R. 10 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>جل رويال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>53:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>زيت حرير الكبير</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>كريم فريند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مسواك اسنان </t>
+  </si>
+  <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>SUEZ 50GM CREAM</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>SULPEPTA 25MGTAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>TRUZYM TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>URIPAN X.R. 10 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>ZYRTEC 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>ترمومتر ديجتال</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>جل رويال</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>53:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>زيت حرير الكبير</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>فيانسيه كريم بخاخ</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>كريم فريند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مسواك اسنان </t>
-  </si>
-  <si>
-    <t>معجون سنسوداين صغير</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -674,7 +713,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 5:35 PM</t>
+    <t>Tuesday, 12 August, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1787,14 +1826,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1803,14 +1842,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1820,14 +1859,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1836,14 +1875,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1853,14 +1892,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1869,14 +1908,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1886,11 +1925,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1902,14 +1941,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1919,14 +1958,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1935,14 +1974,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,11 +1991,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1968,14 +2007,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,14 +2024,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2001,14 +2040,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2018,14 +2057,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2034,14 +2073,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,14 +2090,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2074,7 +2113,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,14 +2123,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2100,14 +2139,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,11 +2156,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2133,14 +2172,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2150,11 +2189,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2173,7 +2212,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,11 +2222,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2199,14 +2238,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,11 +2255,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2232,14 +2271,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,11 +2288,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2265,14 +2304,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2321,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2298,14 +2337,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2315,11 +2354,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2331,14 +2370,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,11 +2387,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2364,14 +2403,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,11 +2420,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2397,14 +2436,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,11 +2453,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2430,14 +2469,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,11 +2486,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2463,14 +2502,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2484,10 +2523,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2496,14 +2535,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,14 +2552,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,14 +2568,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2585,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,11 +2618,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2595,14 +2634,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,11 +2651,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2628,14 +2667,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,11 +2684,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2668,7 +2707,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,11 +2717,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2694,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,7 +2750,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2734,7 +2773,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,14 +2783,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2767,7 +2806,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2816,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,14 +2832,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,11 +2849,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2826,14 +2865,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2882,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2859,14 +2898,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,11 +2915,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2892,14 +2931,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,11 +2948,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2925,28 +2964,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2958,7 +2997,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2971,18 +3010,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,31 +3030,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,31 +3063,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3064,7 +3103,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,14 +3113,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,28 +3129,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3130,13 +3169,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3147,7 +3186,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3163,24 +3202,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3196,24 +3235,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,28 +3261,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3262,21 +3301,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3288,20 +3327,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3309,10 +3348,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,31 +3360,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,31 +3393,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3394,24 +3433,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,28 +3459,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3453,24 +3492,24 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3486,28 +3525,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3519,31 +3558,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3552,31 +3591,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3585,7 +3624,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3598,15 +3637,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3625,21 +3664,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3651,28 +3690,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3684,28 +3723,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3717,28 +3756,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3750,66 +3789,264 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3508.5149999999999</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>226</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
         <v>221</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>176</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>218</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>227</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>65</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>176</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>96</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>228</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>104</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>176</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>218</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>229</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>230</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>176</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>222</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>223</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>231</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>232</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>176</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>202</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>233</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>230</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>176</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>218</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3813.5149999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>234</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>235</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>236</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4193,10 +4430,40 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -713,7 +713,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 6:26 PM</t>
+    <t>Tuesday, 12 August, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -584,9 +593,6 @@
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>57.4200</t>
   </si>
   <si>
@@ -713,7 +719,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 6:31 PM</t>
+    <t>Tuesday, 12 August, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1503,7 +1509,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1519,7 +1525,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1529,14 +1535,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1545,14 +1551,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1562,14 +1568,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1595,11 +1601,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1611,14 +1617,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1635,7 +1641,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1651,7 +1657,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1661,14 +1667,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1677,14 +1683,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1694,11 +1700,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1710,14 +1716,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1734,7 +1740,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1750,7 +1756,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1760,14 +1766,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1776,14 +1782,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1793,11 +1799,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1809,14 +1815,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1826,11 +1832,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1842,14 +1848,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1859,14 +1865,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1882,7 +1888,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1892,14 +1898,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1915,7 +1921,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1925,14 +1931,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1948,7 +1954,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1958,7 +1964,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1981,7 +1987,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1998,7 +2004,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2014,7 +2020,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2024,11 +2030,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2040,14 +2046,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2064,7 +2070,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2073,14 +2079,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2090,14 +2096,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2113,7 +2119,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2123,14 +2129,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2139,14 +2145,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2156,14 +2162,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2172,14 +2178,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2189,14 +2195,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2205,14 +2211,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2222,14 +2228,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2238,14 +2244,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2262,7 +2268,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2278,7 +2284,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2295,7 +2301,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2311,7 +2317,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2328,7 +2334,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2344,7 +2350,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2361,7 +2367,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2377,7 +2383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2410,7 +2416,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2420,11 +2426,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2453,11 +2459,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2476,7 +2482,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2509,7 +2515,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2519,11 +2525,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2535,14 +2541,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2552,11 +2558,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2575,7 +2581,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2585,14 +2591,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2618,14 +2624,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2641,7 +2647,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2658,7 +2664,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2674,7 +2680,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2733,14 +2739,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2750,7 +2756,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2773,7 +2779,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2783,14 +2789,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2816,14 +2822,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2856,7 +2862,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2872,7 +2878,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2882,11 +2888,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2915,7 +2921,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2938,7 +2944,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,11 +2954,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2981,11 +2987,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3004,7 +3010,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3037,7 +3043,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3054,7 +3060,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3070,7 +3076,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3080,14 +3086,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,14 +3119,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3129,31 +3135,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3162,31 +3168,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3202,13 +3208,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3235,13 +3241,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3268,24 +3274,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3294,14 +3300,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3311,11 +3317,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3334,7 +3340,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3351,7 +3357,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3367,7 +3373,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3377,14 +3383,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3393,14 +3399,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3433,21 +3439,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3459,28 +3465,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3492,28 +3498,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3525,20 +3531,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3546,7 +3552,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3558,31 +3564,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>208</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3591,31 +3597,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>104</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3624,31 +3630,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3657,28 +3663,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3697,21 +3703,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3723,28 +3729,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3756,28 +3762,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3789,28 +3795,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3822,28 +3828,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3855,28 +3861,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3888,28 +3894,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3921,28 +3927,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -3967,15 +3973,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -3994,59 +4000,92 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3813.5149999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>234</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>235</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>232</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>179</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>220</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>3900.5149999999999</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>236</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>237</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>238</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4460,10 +4499,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -62,354 +62,378 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>BETASERC 24MG 40 TABS</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-18.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>ALPHINTERN 30 F.C.TABS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>AQUA PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>BETASERC 24MG 40 TABS</t>
-  </si>
-  <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-18.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>339.00</t>
-  </si>
-  <si>
-    <t>339.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 5 CAPS.</t>
-  </si>
-  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -422,9 +446,6 @@
     <t>LASIX 20MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>47.8800</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -449,174 +470,177 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>OXITROPIL 1200 MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>19.6800</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PEPZOL 20 MG MR 14 CAP</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>SUEZ 50GM CREAM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>SULPEPTA 25MGTAB</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>URIPAN X.R. 10 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>جل رويال</t>
+  </si>
+  <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>OXITROPIL 1200 MG 60 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>19.6800</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PEPZOL 20 MG MR 14 CAP</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>QUADRIDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>SUEZ 50GM CREAM</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>SULPEPTA 25MGTAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>TRUZYM TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>URIPAN X.R. 10 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>ZYRTEC 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>ترمومتر ديجتال</t>
-  </si>
-  <si>
-    <t>جل رويال</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -650,7 +674,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>فيانسيه كريم بخاخ</t>
@@ -707,7 +734,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>70.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
@@ -719,7 +746,7 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 6:33 PM</t>
+    <t>Tuesday, 12 August, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1453,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1436,11 +1463,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1452,14 +1479,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1469,14 +1496,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1485,14 +1512,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1502,14 +1529,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1518,14 +1545,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1535,11 +1562,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1551,14 +1578,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1601,14 +1628,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1641,7 +1668,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1657,7 +1684,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1707,7 +1734,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1740,7 +1767,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1756,7 +1783,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1806,7 +1833,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1839,7 +1866,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1872,7 +1899,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1938,7 +1965,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2020,7 +2047,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2037,7 +2064,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2070,7 +2097,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2119,7 +2146,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2152,7 +2179,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2162,14 +2189,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>64</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2202,7 +2229,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2218,7 +2245,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2228,14 +2255,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2244,14 +2271,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2284,7 +2311,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2294,14 +2321,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2343,14 +2370,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2360,11 +2387,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2376,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2393,14 +2420,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2426,14 +2453,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2442,14 +2469,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,14 +2486,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2475,14 +2502,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,14 +2519,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2552,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2541,14 +2568,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2558,14 +2585,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2591,14 +2618,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2607,14 +2634,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2628,10 +2655,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2673,14 +2700,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,11 +2717,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,11 +2750,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2739,14 +2766,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2756,14 +2783,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2772,14 +2799,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2789,14 +2816,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2805,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2849,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2882,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2871,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2888,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2904,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2921,14 +2948,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2937,14 +2964,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2954,14 +2981,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2970,14 +2997,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,14 +3047,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3036,14 +3063,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,14 +3080,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3069,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3135,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3168,31 +3195,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,7 +3228,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3214,15 +3241,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3234,31 +3261,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,28 +3294,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3300,31 +3327,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,31 +3360,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3366,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3383,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3399,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3416,14 +3443,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3449,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3465,31 +3492,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,31 +3525,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,31 +3558,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,7 +3591,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3577,18 +3604,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3597,31 +3624,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>210</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3630,31 +3657,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,31 +3690,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,31 +3723,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3729,31 +3756,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3762,31 +3789,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,31 +3822,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3828,31 +3855,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3861,31 +3888,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3894,31 +3921,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3927,31 +3954,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3960,31 +3987,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3993,31 +4020,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4026,66 +4053,132 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>3900.5149999999999</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>236</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>237</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>238</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>242</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>243</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>188</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>212</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>244</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>222</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>188</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>229</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4031.855</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>245</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>246</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>247</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4504,10 +4597,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BETASERC 24MG 40 TABS</t>
   </si>
   <si>
@@ -122,9 +134,6 @@
     <t>53.4600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
@@ -227,246 +236,258 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-18.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>339.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 5 CAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-18.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>339.00</t>
-  </si>
-  <si>
-    <t>339.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 5 CAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>LASIX 20MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -500,9 +521,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -632,6 +650,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>ترمومتر ديجتال</t>
   </si>
   <si>
@@ -650,6 +680,15 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>زيت حرير الكبير</t>
   </si>
   <si>
@@ -665,88 +704,82 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>25.3200</t>
+  </si>
+  <si>
+    <t>12:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فريند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مسواك اسنان </t>
+  </si>
+  <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>ملقاط كارت</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>فيانسيه كريم بخاخ</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>كريم فريند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مسواك اسنان </t>
-  </si>
-  <si>
-    <t>معجون سنسوداين صغير</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 25 مل</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>ملقاط كارت</t>
-  </si>
-  <si>
-    <t>Tuesday, 12 August, 2025 6:39 PM</t>
+    <t>Tuesday, 12 August, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1569,7 +1602,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1578,14 +1611,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1595,14 +1628,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1618,7 +1651,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1628,14 +1661,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1661,11 +1694,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1677,14 +1710,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1701,7 +1734,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1717,7 +1750,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1727,14 +1760,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1743,14 +1776,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1760,11 +1793,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1776,14 +1809,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1800,7 +1833,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1816,7 +1849,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1826,14 +1859,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1842,14 +1875,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1859,11 +1892,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1875,14 +1908,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1892,11 +1925,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1908,14 +1941,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1925,14 +1958,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1948,7 +1981,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1958,14 +1991,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1981,7 +2014,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1991,14 +2024,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2014,7 +2047,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2024,11 +2057,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2040,14 +2073,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2064,7 +2097,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2080,7 +2113,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,14 +2123,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2106,14 +2139,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,14 +2156,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2139,14 +2172,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,14 +2189,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2172,14 +2205,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2189,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2205,14 +2238,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2222,14 +2255,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2238,14 +2271,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2255,14 +2288,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2271,14 +2304,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2288,14 +2321,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2304,14 +2337,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2321,11 +2354,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2337,14 +2370,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2354,11 +2387,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2370,14 +2403,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2394,7 +2427,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2410,7 +2443,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2427,7 +2460,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2443,7 +2476,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2476,7 +2509,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2509,7 +2542,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2526,7 +2559,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2542,7 +2575,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2552,11 +2585,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2568,14 +2601,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2585,11 +2618,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2601,14 +2634,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2618,11 +2651,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2641,7 +2674,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,11 +2684,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2667,14 +2700,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2684,11 +2717,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2700,14 +2733,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2721,10 +2754,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,14 +2766,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,14 +2783,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2766,14 +2799,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,14 +2816,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2806,7 +2839,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2816,11 +2849,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2832,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2865,14 +2898,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2915,14 +2948,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2931,14 +2964,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2955,7 +2988,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2971,7 +3004,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3004,7 +3037,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3047,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,14 +3063,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,11 +3080,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3063,14 +3096,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,11 +3113,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3096,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,11 +3146,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3129,14 +3162,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,11 +3179,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3169,7 +3202,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3186,7 +3219,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3212,11 +3245,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3228,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,14 +3278,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3261,28 +3294,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3294,28 +3327,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3327,31 +3360,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,28 +3393,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3400,24 +3433,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,31 +3459,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3492,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3513,10 +3546,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3525,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,14 +3575,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,31 +3591,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,28 +3624,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3624,28 +3657,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3657,28 +3690,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3690,31 +3723,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>218</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3723,31 +3756,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>222</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3763,13 +3796,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3780,7 +3813,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3796,21 +3829,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -3822,31 +3855,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,31 +3888,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3895,21 +3928,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -3921,24 +3954,24 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -3954,28 +3987,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -3987,28 +4020,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4020,28 +4053,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4053,31 +4086,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4086,28 +4119,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4119,66 +4152,198 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4031.855</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>245</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>246</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>247</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>249</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>117</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>194</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>215</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>250</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>117</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>194</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>243</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>252</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>253</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>194</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>222</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>254</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>255</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>194</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>215</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4093.105</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>256</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>257</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>258</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4607,10 +4772,30 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
@@ -197,6 +206,24 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -215,12 +242,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -428,6 +449,15 @@
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -494,9 +524,6 @@
     <t>0:6</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
     <t>1:7</t>
   </si>
   <si>
@@ -779,7 +806,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 7:05 PM</t>
+    <t>Tuesday, 12 August, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1711,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1727,11 +1754,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1767,7 +1794,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1783,7 +1810,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1793,14 +1820,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1809,14 +1836,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1826,11 +1853,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1842,14 +1869,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1866,7 +1893,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1882,7 +1909,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1908,14 +1935,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,11 +1952,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2024,11 +2051,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2057,14 +2084,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2073,14 +2100,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2090,14 +2117,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2106,14 +2133,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2123,14 +2150,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2156,14 +2183,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2172,14 +2199,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,14 +2216,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2205,7 +2232,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2222,14 +2249,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2255,14 +2282,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2271,14 +2298,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,14 +2315,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2321,14 +2348,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2403,14 +2430,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2420,14 +2447,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2453,14 +2480,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2486,11 +2513,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,11 +2546,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2552,11 +2579,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2585,14 +2612,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,11 +2645,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,14 +2678,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2674,7 +2701,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2707,7 +2734,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2740,7 +2767,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2750,11 +2777,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,11 +2810,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,14 +2843,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2832,14 +2859,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,14 +2876,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2865,14 +2892,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,7 +2909,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2905,7 +2932,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2942,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2975,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,14 +3008,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,14 +3024,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3030,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,14 +3090,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,14 +3107,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,11 +3140,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3129,14 +3156,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,14 +3206,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3202,7 +3229,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3235,7 +3262,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,11 +3272,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3261,14 +3288,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,14 +3305,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,11 +3338,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3327,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3367,21 +3394,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>22</v>
@@ -3393,31 +3420,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,31 +3453,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,28 +3486,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3499,21 +3526,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>22</v>
@@ -3525,31 +3552,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,31 +3585,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3598,24 +3625,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3631,7 +3658,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,11 +3668,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3657,28 +3684,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3690,31 +3717,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,31 +3750,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3763,21 +3790,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3789,20 +3816,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3813,7 +3840,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3829,21 +3856,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -3855,31 +3882,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>232</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,31 +3915,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,31 +3948,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3954,28 +3981,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -3987,31 +4014,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,31 +4047,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,28 +4080,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4086,24 +4113,24 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4119,28 +4146,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4152,28 +4179,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4185,28 +4212,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4218,31 +4245,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4251,28 +4278,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4284,66 +4311,198 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4093.105</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>256</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>257</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>258</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>124</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>203</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>224</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>259</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>124</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>203</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>252</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>261</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>262</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>203</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>231</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>263</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>264</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>203</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>224</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4293.2749999999996</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>265</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>266</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>267</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4792,10 +4951,30 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -206,6 +215,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
@@ -389,9 +407,6 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -446,6 +461,15 @@
     <t>339.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>71.5000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -485,9 +509,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>44.0000</t>
   </si>
   <si>
@@ -806,7 +827,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 7:15 PM</t>
+    <t>Tuesday, 12 August, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1843,7 +1864,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1853,14 +1874,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1869,14 +1890,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1886,11 +1907,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1902,14 +1923,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1926,7 +1947,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1942,7 +1963,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1959,7 +1980,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1975,7 +1996,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2008,7 +2029,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2018,11 +2039,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -2034,14 +2055,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2051,14 +2072,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2117,14 +2138,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2133,14 +2154,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2187,7 +2208,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2223,7 +2244,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2239,7 +2260,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2249,11 +2270,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2265,14 +2286,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2289,7 +2310,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2305,7 +2326,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2315,14 +2336,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2348,14 +2369,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2364,14 +2385,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2381,14 +2402,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2397,14 +2418,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2414,14 +2435,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2430,14 +2451,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2480,14 +2501,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2496,14 +2517,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2546,11 +2567,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2579,11 +2600,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2616,10 +2637,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,14 +2666,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,11 +2699,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2711,11 +2732,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,11 +2798,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2793,14 +2814,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,11 +2831,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,14 +2864,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,14 +2880,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,11 +2897,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,7 +2930,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2932,7 +2953,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2965,7 +2986,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,14 +2996,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,7 +3062,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3064,7 +3085,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3095,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,14 +3144,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,11 +3161,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3156,14 +3177,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,11 +3194,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,14 +3227,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,11 +3260,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3326,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,11 +3359,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,7 +3392,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3394,7 +3415,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3427,7 +3448,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,14 +3458,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,11 +3491,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>22</v>
@@ -3493,7 +3514,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3507,10 +3528,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,31 +3540,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,7 +3573,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3565,18 +3586,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3585,7 +3606,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3598,15 +3619,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3618,31 +3639,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3658,24 +3679,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3691,13 +3712,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3708,7 +3729,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3724,24 +3745,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,14 +3771,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,14 +3788,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,14 +3804,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,7 +3821,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3823,24 +3844,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,31 +3870,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3889,17 +3910,17 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3928,7 +3949,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3936,7 +3957,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -3948,31 +3969,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>72</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3981,28 +4002,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4014,31 +4035,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>241</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4047,31 +4068,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4080,28 +4101,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4113,31 +4134,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4153,24 +4174,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,20 +4200,20 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4219,21 +4240,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4245,20 +4266,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4266,7 +4287,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4278,28 +4299,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4311,28 +4332,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4344,28 +4365,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4377,31 +4398,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4410,28 +4431,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4443,66 +4464,165 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>264</v>
+        <v>130</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4293.2749999999996</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>265</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>266</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>130</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>210</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>259</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>267</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q99" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>268</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>269</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>210</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>238</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>270</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>271</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>210</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>231</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>4409.5450000000001</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>272</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>273</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>274</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4971,10 +5091,25 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -827,7 +827,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 7:16 PM</t>
+    <t>Tuesday, 12 August, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -599,6 +599,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">RELANTA  20TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
   </si>
   <si>
@@ -641,9 +653,6 @@
     <t>SUEZ 50GM CREAM</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>SULPEPTA 25MGTAB</t>
   </si>
   <si>
@@ -827,7 +836,16 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 7:18 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>Tuesday, 12 August, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3448,21 +3466,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>22</v>
@@ -3474,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3491,11 +3509,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>22</v>
@@ -3507,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3524,11 +3542,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>22</v>
@@ -3540,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3573,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3590,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3606,14 +3624,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3623,14 +3641,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3639,31 +3657,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3672,31 +3690,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3705,28 +3723,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3745,13 +3763,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3778,24 +3796,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3804,14 +3822,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,11 +3839,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3844,7 +3862,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3854,14 +3872,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3887,11 +3905,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>34</v>
@@ -3910,7 +3928,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3920,14 +3938,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3936,28 +3954,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -3969,28 +3987,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4002,28 +4020,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4035,28 +4053,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4075,24 +4093,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4108,13 +4126,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4125,7 +4143,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4141,13 +4159,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4158,7 +4176,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>248</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4167,7 +4185,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4180,18 +4198,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>106</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4200,31 +4218,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4240,21 +4258,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4266,28 +4284,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4299,28 +4317,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4332,28 +4350,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4365,28 +4383,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4398,28 +4416,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4431,28 +4449,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4464,28 +4482,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4497,7 +4515,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4510,18 +4528,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4530,31 +4548,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4563,66 +4581,132 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>4409.5450000000001</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>272</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>273</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>274</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>197</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>234</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>275</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>276</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>197</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>277</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>4525.5450000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>278</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>279</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>280</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5106,10 +5190,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -116,6 +125,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BETASERC 24MG 40 TABS</t>
   </si>
   <si>
@@ -143,6 +164,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
@@ -272,6 +305,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -308,6 +350,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -359,6 +413,18 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -386,9 +452,6 @@
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -485,12 +548,6 @@
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -518,18 +575,12 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -560,9 +611,6 @@
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>19.6800</t>
   </si>
   <si>
@@ -761,10 +809,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>25.3200</t>
-  </si>
-  <si>
-    <t>12:1</t>
+    <t>35.3200</t>
+  </si>
+  <si>
+    <t>17:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -833,9 +881,6 @@
     <t>ملقاط كارت</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -845,7 +890,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 7:41 PM</t>
+    <t>Tuesday, 12 August, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1585,7 +1630,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1602,7 +1647,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1668,7 +1713,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1677,7 +1722,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1694,14 +1739,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1717,7 +1762,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1727,14 +1772,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1743,14 +1788,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1760,11 +1805,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1776,14 +1821,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1793,14 +1838,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1809,14 +1854,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1833,7 +1878,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1849,7 +1894,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1859,14 +1904,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1875,14 +1920,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1892,14 +1937,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1908,14 +1953,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1925,11 +1970,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1941,14 +1986,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1965,7 +2010,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1981,7 +2026,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2014,7 +2059,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2024,14 +2069,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2040,14 +2085,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2057,11 +2102,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -2073,14 +2118,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2090,11 +2135,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2106,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2123,14 +2168,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2139,14 +2184,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2156,11 +2201,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -2172,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2189,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2205,14 +2250,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2222,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2238,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2255,11 +2300,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -2271,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2288,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2304,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2321,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2337,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2354,11 +2399,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2370,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,11 +2432,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2403,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2443,7 +2488,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2498,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2476,7 +2521,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,14 +2564,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2542,7 +2587,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2597,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2585,11 +2630,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2601,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2634,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2696,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2684,11 +2729,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2700,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2717,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2733,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2750,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2766,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2783,14 +2828,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2799,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,14 +2861,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2832,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,11 +2894,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2865,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2882,11 +2927,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2898,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,14 +2960,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2931,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2948,11 +2993,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2964,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,14 +3026,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2997,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,11 +3059,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -3030,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,11 +3092,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -3063,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3080,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3096,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3129,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3162,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,11 +3224,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3195,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3261,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3294,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,14 +3356,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3327,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,7 +3422,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3400,7 +3445,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3433,7 +3478,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>195</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3466,21 +3511,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>22</v>
@@ -3492,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,14 +3554,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3532,7 +3577,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3549,7 +3594,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3565,7 +3610,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3598,7 +3643,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,11 +3686,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>22</v>
@@ -3657,31 +3702,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3690,28 +3735,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3723,31 +3768,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3756,31 +3801,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,31 +3834,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3822,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,11 +3884,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3855,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,31 +3933,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,31 +3966,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,31 +3999,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,31 +4032,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,28 +4065,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4053,28 +4098,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4086,31 +4131,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,31 +4164,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,24 +4197,24 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4192,24 +4237,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>251</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4225,24 +4270,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>106</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,28 +4296,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4284,24 +4329,24 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4317,31 +4362,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4350,20 +4395,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4390,24 +4435,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,31 +4461,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4449,28 +4494,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4482,28 +4527,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4515,28 +4560,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4548,31 +4593,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4581,28 +4626,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>272</v>
+        <v>124</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4614,28 +4659,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4647,66 +4692,264 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>283</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>95</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>213</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>144</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>284</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>151</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>213</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>250</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>285</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>151</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>213</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>278</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>287</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>288</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>213</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>257</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>289</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>114</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>213</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>250</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>290</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>291</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>213</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>292</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>4525.5450000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>278</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>279</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>280</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>4898.9049999999997</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>293</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>294</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>295</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5200,10 +5443,40 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>BETASERC 24MG 40 TABS</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -791,7 +800,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>زيت حرير الكبير</t>
@@ -809,10 +818,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>35.3200</t>
-  </si>
-  <si>
-    <t>17:1</t>
+    <t>37.3200</t>
+  </si>
+  <si>
+    <t>18:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -821,6 +830,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>111:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
@@ -890,7 +911,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 7:49 PM</t>
+    <t>Tuesday, 12 August, 2025 7:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1816,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1805,14 +1826,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1838,14 +1859,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1871,14 +1892,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1911,7 +1932,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1937,11 +1958,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1970,7 +1991,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1993,7 +2014,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2019,7 +2040,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2036,11 +2057,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2076,7 +2097,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2092,7 +2113,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2102,11 +2123,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2142,7 +2163,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2158,7 +2179,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2208,7 +2229,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2224,7 +2245,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2241,7 +2262,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2257,7 +2278,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -2316,14 +2337,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,11 +2354,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,7 +2387,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2422,7 +2443,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2455,7 +2476,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2552,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2571,7 +2592,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2587,7 +2608,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2604,7 +2625,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2620,7 +2641,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,11 +2651,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2670,7 +2691,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2679,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>133</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2719,7 +2740,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,11 +2750,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2769,7 +2790,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2835,7 +2856,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2851,7 +2872,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2861,14 +2882,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2917,7 +2938,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2927,14 +2948,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2950,7 +2971,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2983,7 +3004,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3000,7 +3021,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3016,7 +3037,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3033,7 +3054,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3049,7 +3070,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3066,7 +3087,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3082,7 +3103,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3115,7 +3136,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3132,7 +3153,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3148,7 +3169,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3179,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,11 +3212,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3214,7 +3235,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,11 +3245,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3257,11 +3278,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3280,7 +3301,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,11 +3311,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3306,14 +3327,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,11 +3344,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,14 +3377,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,14 +3410,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3509,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3511,7 +3532,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3542,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3544,7 +3565,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,14 +3575,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3608,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3610,7 +3631,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3627,7 +3648,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3643,7 +3664,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,11 +3674,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>22</v>
@@ -3669,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,7 +3707,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3709,21 +3730,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>22</v>
@@ -3735,28 +3756,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3768,14 +3789,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,11 +3806,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3808,7 +3829,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3841,7 +3862,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3858,7 +3879,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3874,7 +3895,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3938,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,31 +3954,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,31 +3987,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,28 +4020,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4039,13 +4060,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4072,24 +4093,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,11 +4136,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4138,7 +4159,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,11 +4202,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>37</v>
@@ -4204,7 +4225,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,28 +4251,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4263,28 +4284,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4296,28 +4317,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4329,28 +4350,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4369,24 +4390,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4402,13 +4423,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4419,7 +4440,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4435,13 +4456,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4452,7 +4473,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>267</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,31 +4482,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>124</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,31 +4515,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4540,18 +4561,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,28 +4581,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4593,28 +4614,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4626,28 +4647,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4659,28 +4680,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4692,28 +4713,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4725,28 +4746,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4758,28 +4779,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>151</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4791,31 +4812,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4824,28 +4845,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4857,31 +4878,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4890,66 +4911,132 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>296</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>117</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>216</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>253</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>297</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>298</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>216</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>299</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>4898.9049999999997</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>293</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>294</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>295</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>4942.4049999999997</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>300</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>301</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>302</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5473,10 +5560,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -179,9 +191,6 @@
     <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>198.00</t>
   </si>
   <si>
@@ -548,12 +557,6 @@
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -572,6 +575,12 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -764,6 +773,9 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -818,10 +830,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>37.3200</t>
-  </si>
-  <si>
-    <t>18:1</t>
+    <t>41.3200</t>
+  </si>
+  <si>
+    <t>20:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -842,6 +854,15 @@
     <t>7.5000</t>
   </si>
   <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
@@ -866,12 +887,6 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -911,7 +926,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 7:53 PM</t>
+    <t>Tuesday, 12 August, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1915,7 +1930,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1925,14 +1940,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1965,7 +1980,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1981,7 +1996,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1991,7 +2006,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -2024,11 +2039,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2064,7 +2079,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2113,7 +2128,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2130,7 +2145,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2146,7 +2161,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2156,11 +2171,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2196,7 +2211,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2212,7 +2227,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2262,7 +2277,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2278,7 +2293,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2295,7 +2310,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2311,7 +2326,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2321,14 +2336,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2337,14 +2352,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2354,11 +2369,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,11 +2402,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2420,7 +2435,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2476,7 +2491,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2486,14 +2501,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2509,7 +2524,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2519,14 +2534,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2535,14 +2550,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2552,14 +2567,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2625,7 +2640,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2641,7 +2656,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2658,7 +2673,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2674,7 +2689,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2684,11 +2699,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2700,14 +2715,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2724,7 +2739,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2733,14 +2748,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2750,14 +2765,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2773,7 +2788,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2783,11 +2798,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2823,7 +2838,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2832,14 +2847,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2849,14 +2864,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>96</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2889,7 +2904,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2905,7 +2920,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2915,14 +2930,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2931,14 +2946,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2971,7 +2986,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3004,7 +3019,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3037,7 +3052,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3054,7 +3069,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3070,7 +3085,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3087,7 +3102,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3103,7 +3118,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3120,7 +3135,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3136,7 +3151,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3169,7 +3184,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3186,7 +3201,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3202,7 +3217,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,14 +3243,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,11 +3260,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3268,7 +3283,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3278,11 +3293,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3301,7 +3316,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3311,11 +3326,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3327,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3344,11 +3359,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3377,11 +3392,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3393,14 +3408,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,14 +3425,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3433,7 +3448,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,14 +3458,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3466,7 +3481,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,14 +3491,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3509,11 +3524,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3525,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3557,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>198</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3558,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,14 +3590,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,14 +3623,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3624,14 +3639,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,14 +3656,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3657,14 +3672,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,14 +3689,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3690,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,14 +3722,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3723,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,11 +3755,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>22</v>
@@ -3756,28 +3771,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,11 +3821,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3822,28 +3837,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3855,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,11 +3887,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -3888,14 +3903,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3921,7 +3936,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3938,11 +3953,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -3954,14 +3969,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,14 +3986,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3994,21 +4009,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -4027,21 +4042,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4053,31 +4068,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4086,28 +4101,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4119,31 +4134,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,31 +4167,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4217,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4233,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,14 +4266,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4284,31 +4299,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4317,28 +4332,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4350,28 +4365,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4383,28 +4398,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4416,31 +4431,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,28 +4464,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4482,31 +4497,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>270</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4515,31 +4530,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4548,31 +4563,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4581,31 +4596,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,31 +4629,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,31 +4662,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>56</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4680,28 +4695,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4713,20 +4728,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4746,24 +4761,24 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4786,21 +4801,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4819,21 +4834,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4845,28 +4860,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4878,31 +4893,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4918,21 +4933,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -4944,28 +4959,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -4977,66 +4992,198 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>157</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>297</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>157</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>219</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>282</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>299</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>300</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>219</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>264</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>301</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>120</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>219</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>257</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>302</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>303</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>219</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>304</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>4942.4049999999997</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>300</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>301</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>302</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5086.4049999999997</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>305</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>306</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>307</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5570,10 +5717,30 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -524,6 +524,15 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -761,12 +770,21 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>YASMIN 0.03/3 MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -830,10 +848,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>41.3200</t>
-  </si>
-  <si>
-    <t>20:1</t>
+    <t>43.3200</t>
+  </si>
+  <si>
+    <t>21:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -893,6 +911,15 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
+    <t xml:space="preserve">كريم كازانوفا </t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -926,7 +953,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 8:40 PM</t>
+    <t>Tuesday, 12 August, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3151,7 +3178,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3234,7 +3261,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3260,14 +3287,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3276,14 +3303,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3293,11 +3320,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3309,14 +3336,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3326,11 +3353,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3342,14 +3369,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,11 +3386,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3392,11 +3419,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3408,14 +3435,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3425,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3441,14 +3468,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3458,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,14 +3501,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3507,14 +3534,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,14 +3551,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,14 +3567,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,14 +3584,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3573,14 +3600,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,14 +3633,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,14 +3650,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>201</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3646,7 +3673,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,14 +3683,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>204</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3679,7 +3706,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3689,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3705,14 +3732,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,14 +3749,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3745,7 +3772,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3762,7 +3789,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3778,7 +3805,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,11 +3815,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3804,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,7 +3848,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3850,15 +3877,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3870,28 +3897,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -3903,14 +3930,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,11 +3947,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3943,7 +3970,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3976,7 +4003,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3993,7 +4020,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4009,7 +4036,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,14 +4046,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4035,14 +4062,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,14 +4079,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4068,31 +4095,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4101,31 +4128,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4134,28 +4161,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4174,13 +4201,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4207,24 +4234,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4233,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,11 +4277,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4273,7 +4300,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,14 +4310,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4299,14 +4326,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,11 +4343,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>37</v>
@@ -4339,7 +4366,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,14 +4376,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,28 +4392,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4398,28 +4425,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>53</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4431,28 +4458,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4464,28 +4491,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4497,28 +4524,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>89</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4530,31 +4557,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>157</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4570,21 +4597,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4609,7 +4636,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4620,7 +4647,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>274</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4629,31 +4656,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4669,24 +4696,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>280</v>
-      </c>
-      <c t="s" r="Q101" s="12">
-        <v>157</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4702,24 +4729,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4728,20 +4755,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4752,7 +4779,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4768,21 +4795,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>157</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4794,28 +4821,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4827,28 +4854,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4860,28 +4887,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4893,28 +4920,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>43</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -4926,28 +4953,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>130</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -4959,28 +4986,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -4992,7 +5019,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5005,15 +5032,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5025,31 +5052,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5058,28 +5085,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5091,28 +5118,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5124,66 +5151,165 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>308</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>309</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>222</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>270</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>310</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>120</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>222</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>263</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>311</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>312</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>222</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>313</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5086.4049999999997</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>305</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>306</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>307</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5604.2349999999997</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>314</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>315</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>316</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5737,10 +5863,25 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -953,7 +953,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 8:44 PM</t>
+    <t>Tuesday, 12 August, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4102,7 +4102,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4116,10 +4116,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -5279,7 +5279,7 @@
     </row>
     <row r="119" ht="25.5" customHeight="1">
       <c r="P119" s="13">
-        <v>5604.2349999999997</v>
+        <v>5627.2349999999997</v>
       </c>
       <c r="Q119" s="13"/>
     </row>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -389,6 +389,12 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -602,9 +608,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -659,6 +662,12 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>PHAROTITA 120 ML SYRUP</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -767,13 +776,19 @@
     <t>57.4200</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>50.4900</t>
+    <t>67.3200</t>
   </si>
   <si>
     <t>YASMIN 0.03/3 MG 21 TABS.</t>
@@ -848,10 +863,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>43.3200</t>
-  </si>
-  <si>
-    <t>21:1</t>
+    <t>45.3200</t>
+  </si>
+  <si>
+    <t>22:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -950,10 +965,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>Tuesday, 12 August, 2025 8:45 PM</t>
+    <t>Tuesday, 12 August, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2716,7 +2728,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2759,11 +2771,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,11 +2870,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2891,14 +2903,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>99</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3060,10 +3072,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3072,14 +3084,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3089,11 +3101,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3105,7 +3117,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3155,14 +3167,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3171,14 +3183,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3221,11 +3233,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -3237,7 +3249,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3254,11 +3266,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3270,7 +3282,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3303,7 +3315,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3353,11 +3365,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3386,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3419,11 +3431,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3435,7 +3447,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3452,7 +3464,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3475,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3508,7 +3520,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3541,7 +3553,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3607,7 +3619,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3617,14 +3629,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3683,14 +3695,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3749,14 +3761,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3815,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3848,11 +3860,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3864,7 +3876,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3881,11 +3893,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3897,28 +3909,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,11 +3959,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3963,7 +3975,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3976,15 +3988,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4013,11 +4025,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4062,7 +4074,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4112,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4135,21 +4147,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4174,18 +4186,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4194,31 +4206,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,28 +4239,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4260,31 +4272,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4293,31 +4305,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4326,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,14 +4388,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4392,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4425,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4442,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4458,31 +4470,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4491,28 +4503,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4524,28 +4536,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4557,28 +4569,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4590,28 +4602,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4623,31 +4635,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>157</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4656,7 +4668,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4669,15 +4681,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4689,31 +4701,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>280</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4722,7 +4734,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4735,18 +4747,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4755,31 +4767,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>157</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4788,31 +4800,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4821,31 +4833,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4854,31 +4866,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,28 +4899,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4920,28 +4932,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -4960,21 +4972,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -4986,28 +4998,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5019,28 +5031,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5059,21 +5071,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5092,21 +5104,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5125,21 +5137,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5151,31 +5163,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5184,28 +5196,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>270</v>
+        <v>152</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5224,21 +5236,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5257,59 +5269,158 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>159</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>313</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>314</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>225</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>275</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>315</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>120</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>225</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>268</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>316</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>317</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>225</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>256</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5627.2349999999997</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>314</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>315</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>316</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c t="s" r="Q121" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>5871.9049999999997</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>318</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>319</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>320</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5878,10 +5989,25 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -749,6 +749,15 @@
     <t>17.0950</t>
   </si>
   <si>
+    <t>TOPI-GENT SEBUM CLEANSING FOAM 150 ML</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>245.0000</t>
+  </si>
+  <si>
     <t>TRUZYM TAB</t>
   </si>
   <si>
@@ -965,7 +974,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 8:51 PM</t>
+    <t>Tuesday, 12 August, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4312,13 +4321,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4329,7 +4338,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4345,24 +4354,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4397,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4411,7 +4420,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4510,7 +4519,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4527,7 +4536,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4553,11 +4562,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4569,28 +4578,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,11 +4628,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,11 +4661,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,11 +4694,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4701,14 +4710,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,11 +4727,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4741,7 +4750,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4760,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4774,7 +4783,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4791,7 +4800,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4807,7 +4816,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4824,7 +4833,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>285</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,7 +4842,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4850,14 +4859,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>132</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,14 +4892,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4923,7 +4932,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4939,7 +4948,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4972,7 +4981,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +4991,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,11 +5024,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,11 +5057,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5064,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5090,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5097,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5123,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,11 +5156,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5170,7 +5179,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>302</v>
+        <v>159</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,11 +5189,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5196,14 +5205,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,11 +5222,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,11 +5255,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5262,7 +5271,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5279,14 +5288,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,14 +5321,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5328,14 +5337,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5345,11 +5354,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5361,14 +5370,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5378,49 +5387,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>319</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>320</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>225</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>259</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>5871.9049999999997</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>318</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>319</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>320</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c t="s" r="Q122" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6116.9049999999997</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>321</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>322</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>323</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6004,10 +6046,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:09 PM</t>
+    <t>Tuesday, 12 August, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -783,6 +783,9 @@
   </si>
   <si>
     <t>57.4200</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
     <t>VENTOCOUGH SYRUP 125 ML</t>
@@ -4486,7 +4489,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,11 +4499,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4512,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4532,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,14 +4565,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,7 +4581,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4611,28 +4614,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4651,7 +4654,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,11 +4664,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4677,14 +4680,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4717,7 +4720,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,11 +4730,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4743,14 +4746,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,11 +4763,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4776,14 +4779,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4796,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4829,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,14 +4845,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4862,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>288</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,7 +4878,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4892,14 +4895,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>132</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>53</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4928,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,14 +4961,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -5007,14 +5010,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5027,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5040,14 +5043,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,11 +5060,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5080,7 +5083,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5093,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5106,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,11 +5126,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5146,7 +5149,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,11 +5159,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5179,7 +5182,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5192,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5205,14 +5208,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,11 +5225,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5245,7 +5248,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>101</v>
+        <v>306</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,11 +5258,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5278,7 +5281,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,11 +5291,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5321,14 +5324,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5337,14 +5340,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,14 +5357,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5370,14 +5373,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5387,11 +5390,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5410,7 +5413,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5420,49 +5423,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>320</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>321</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>225</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>260</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6116.9049999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>321</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c t="s" r="Q123" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6147.9049999999997</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>322</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
         <v>323</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>324</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6051,10 +6087,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:10 PM</t>
+    <t>Tuesday, 12 August, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:19 PM</t>
+    <t>Tuesday, 12 August, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:20 PM</t>
+    <t>Tuesday, 12 August, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
   </si>
   <si>
@@ -308,9 +320,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -977,7 +986,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:21 PM</t>
+    <t>Tuesday, 12 August, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2014,7 +2023,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2057,14 +2066,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2090,11 +2099,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2123,7 +2132,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -2146,7 +2155,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2172,7 +2181,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2278,7 +2287,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2337,7 +2346,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2427,7 +2436,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2453,11 +2462,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2486,11 +2495,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2519,7 +2528,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2575,7 +2584,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2608,7 +2617,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2724,7 +2733,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2740,7 +2749,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2806,7 +2815,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2816,11 +2825,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2856,7 +2865,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2905,7 +2914,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2915,11 +2924,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2955,7 +2964,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>99</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3021,7 +3030,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3037,7 +3046,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3103,7 +3112,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3136,7 +3145,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3169,7 +3178,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3186,7 +3195,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3202,7 +3211,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3219,7 +3228,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3235,7 +3244,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3252,7 +3261,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3268,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3301,7 +3310,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3334,7 +3343,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3351,7 +3360,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3367,7 +3376,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3459,7 +3468,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3476,11 +3485,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3499,7 +3508,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3509,11 +3518,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,14 +3749,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>205</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3763,7 +3772,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>208</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3796,7 +3805,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3862,7 +3871,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3879,7 +3888,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3895,7 +3904,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3905,11 +3914,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3938,11 +3947,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3971,7 +3980,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3994,21 +4003,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -4020,28 +4029,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,11 +4079,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -4093,7 +4102,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4126,7 +4135,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4143,7 +4152,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4159,7 +4168,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4185,7 +4194,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4202,11 +4211,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4218,28 +4227,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4251,31 +4260,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4284,28 +4293,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4324,13 +4333,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4341,7 +4350,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4357,13 +4366,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4374,7 +4383,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4390,24 +4399,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,7 +4425,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4433,11 +4442,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4456,7 +4465,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4482,14 +4491,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4499,14 +4508,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,11 +4541,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4588,7 +4597,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4605,7 +4614,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4621,7 +4630,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4631,11 +4640,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4647,28 +4656,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4680,28 +4689,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4713,28 +4722,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4746,28 +4755,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4779,28 +4788,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4819,24 +4828,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4852,13 +4861,13 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4869,7 +4878,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4891,7 +4900,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4902,7 +4911,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>289</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,31 +4920,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>132</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4944,31 +4953,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>57</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4977,20 +4986,20 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5001,7 +5010,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5017,13 +5026,13 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5050,21 +5059,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5076,28 +5085,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5109,28 +5118,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5142,28 +5151,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5175,28 +5184,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5208,28 +5217,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5248,21 +5257,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5274,28 +5283,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5307,28 +5316,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5340,31 +5349,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5373,31 +5382,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5406,28 +5415,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5439,66 +5448,99 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>323</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>324</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>228</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>263</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6147.9049999999997</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>322</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>323</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>324</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c t="s" r="Q124" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6230.9049999999997</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>325</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>326</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>327</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6092,10 +6134,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -170,156 +170,159 @@
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN 30 TABS</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>COLD FREE 20 TAB.</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -497,9 +500,6 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -986,7 +986,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:22 PM</t>
+    <t>Tuesday, 12 August, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2485,7 +2485,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2511,14 +2511,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2528,11 +2528,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2544,14 +2544,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2577,14 +2577,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2676,14 +2676,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2693,11 +2693,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>37</v>
@@ -2709,14 +2709,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2726,11 +2726,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2775,14 +2775,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2841,14 +2841,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2891,14 +2891,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2940,14 +2940,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2957,11 +2957,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2990,14 +2990,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3006,14 +3006,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3023,14 +3023,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3056,11 +3056,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3105,14 +3105,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3145,7 +3145,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3277,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3419,11 +3419,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3475,7 +3475,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3485,11 +3485,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3574,7 +3574,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3673,7 +3673,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3838,7 +3838,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3871,7 +3871,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3970,7 +3970,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4069,7 +4069,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4168,7 +4168,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4185,7 +4185,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4211,11 +4211,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4432,7 +4432,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4531,7 +4531,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4706,11 +4706,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4795,7 +4795,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4878,7 +4878,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>162</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4894,7 +4894,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4977,7 +4977,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,7 +5010,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>162</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5026,7 +5026,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5191,7 +5191,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5257,7 +5257,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5323,7 +5323,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5356,7 +5356,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5389,7 +5389,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5406,7 +5406,7 @@
         <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5455,7 +5455,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:23 PM</t>
+    <t>Tuesday, 12 August, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:24 PM</t>
+    <t>Tuesday, 12 August, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:25 PM</t>
+    <t>Tuesday, 12 August, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:26 PM</t>
+    <t>Tuesday, 12 August, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -746,6 +746,15 @@
     <t>SUEZ 50GM CREAM</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
     <t>SULPEPTA 25MGTAB</t>
   </si>
   <si>
@@ -986,7 +995,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:27 PM</t>
+    <t>Tuesday, 12 August, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4300,24 +4309,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,11 +4352,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4366,13 +4375,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4383,7 +4392,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4399,13 +4408,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4416,7 +4425,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4432,24 +4441,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4498,7 +4507,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,11 +4583,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4630,7 +4639,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4647,7 +4656,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4673,11 +4682,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4689,28 +4698,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,11 +4748,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>115</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,11 +4781,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>94</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,11 +4814,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,11 +4847,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4861,7 +4870,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>57</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4894,7 +4903,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4911,7 +4920,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4927,7 +4936,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4944,7 +4953,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>292</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4953,7 +4962,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4970,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>136</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4986,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>57</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>53</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>53</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5043,7 +5052,7 @@
         <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5059,7 +5068,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5092,7 +5101,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5118,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>57</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5144,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5151,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>57</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,11 +5177,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5184,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,11 +5210,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,11 +5243,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5250,14 +5259,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,11 +5276,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5290,7 +5299,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,11 +5309,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5316,14 +5325,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,11 +5342,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5349,14 +5358,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5366,11 +5375,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5382,7 +5391,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5399,14 +5408,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5415,14 +5424,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>321</v>
+        <v>53</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5432,14 +5441,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5448,14 +5457,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>124</v>
+        <v>324</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5465,11 +5474,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>22</v>
@@ -5481,14 +5490,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5498,49 +5507,82 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>326</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>327</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>228</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>266</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q124" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6230.9049999999997</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>325</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>326</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>327</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c t="s" r="Q125" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6367.4049999999997</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>328</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>329</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>330</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6139,10 +6181,15 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -587,12 +599,6 @@
     <t>ISOROMYDERM TOPICAL GEL 30 GM</t>
   </si>
   <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
     <t>ITRANOX 100MG 5 CAPS.</t>
   </si>
   <si>
@@ -995,7 +1001,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:30 PM</t>
+    <t>Tuesday, 12 August, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2065,7 +2071,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2075,14 +2081,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2091,14 +2097,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2108,14 +2114,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2124,14 +2130,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2141,11 +2147,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -2157,14 +2163,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2174,7 +2180,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -2197,7 +2203,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2207,14 +2213,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2223,7 +2229,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2240,11 +2246,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2289,14 +2295,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2329,7 +2335,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2372,11 +2378,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2388,7 +2394,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2405,14 +2411,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2421,14 +2427,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2438,14 +2444,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2454,14 +2460,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2478,7 +2484,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2504,11 +2510,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2520,14 +2526,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2537,11 +2543,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2570,11 +2576,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2603,14 +2609,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2636,14 +2642,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2702,14 +2708,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2742,7 +2748,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2758,7 +2764,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2768,14 +2774,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2784,14 +2790,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2801,11 +2807,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2834,14 +2840,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2890,7 +2896,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2900,14 +2906,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2923,7 +2929,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2940,7 +2946,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2989,7 +2995,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3022,7 +3028,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3032,14 +3038,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>103</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3055,7 +3061,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3065,14 +3071,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3098,14 +3104,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3114,14 +3120,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3131,14 +3137,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3147,7 +3153,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3164,14 +3170,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3197,11 +3203,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3213,7 +3219,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3230,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,14 +3269,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,11 +3335,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3345,7 +3351,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3362,11 +3368,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3378,7 +3384,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3395,14 +3401,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3411,7 +3417,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3461,11 +3467,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,11 +3500,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,11 +3533,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3543,7 +3549,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3560,11 +3566,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3583,7 +3589,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3616,7 +3622,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,14 +3632,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3649,7 +3655,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3748,7 +3754,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,14 +3764,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3830,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3840,14 +3846,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,14 +3863,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3880,7 +3886,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3896,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3906,14 +3912,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3939,7 +3945,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3956,7 +3962,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3979,7 +3985,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,7 +3995,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4012,7 +4018,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,11 +4028,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -4038,7 +4044,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4051,15 +4057,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -4071,28 +4077,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,11 +4127,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,14 +4193,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,14 +4226,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,7 +4242,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4253,11 +4259,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4276,21 +4282,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4302,28 +4308,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4335,31 +4341,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4368,28 +4374,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4401,31 +4407,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,31 +4440,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,31 +4473,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,14 +4506,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,11 +4523,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4533,14 +4539,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4556,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4573,7 +4579,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,14 +4589,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,11 +4622,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4639,7 +4645,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4653,10 +4659,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,7 +4704,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4715,7 +4721,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4738,21 +4744,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4764,28 +4770,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4797,28 +4803,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>93</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4830,28 +4836,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4870,21 +4876,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4896,20 +4902,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>57</v>
+        <v>286</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4917,10 +4923,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,31 +4935,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,31 +4968,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>295</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,7 +5001,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5008,18 +5014,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>297</v>
-      </c>
-      <c t="s" r="Q109" s="12">
-        <v>136</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5035,24 +5041,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>53</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,31 +5067,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>53</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5094,28 +5100,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5127,28 +5133,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5167,21 +5173,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5193,28 +5199,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>312</v>
+        <v>57</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5233,21 +5239,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5259,28 +5265,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5292,28 +5298,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5325,28 +5331,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>312</v>
+        <v>53</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5358,28 +5364,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5391,28 +5397,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5424,7 +5430,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5437,18 +5443,18 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5464,24 +5470,24 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5497,21 +5503,21 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>124</v>
+        <v>326</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5523,66 +5529,99 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>327</v>
+        <v>128</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>328</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>329</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>230</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>268</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q125" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6367.4049999999997</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>328</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>329</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c t="s" r="Q126" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6416.4049999999997</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
         <v>330</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>331</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>332</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6186,10 +6225,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -1001,7 +1001,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:31 PM</t>
+    <t>Tuesday, 12 August, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4249,7 +4249,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4263,10 +4263,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -5591,7 +5591,7 @@
     </row>
     <row r="127" ht="25.5" customHeight="1">
       <c r="P127" s="13">
-        <v>6416.4049999999997</v>
+        <v>6455.4049999999997</v>
       </c>
       <c r="Q127" s="13"/>
     </row>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -314,7 +314,7 @@
     <t>105.00</t>
   </si>
   <si>
-    <t>34.6500</t>
+    <t>69.3000</t>
   </si>
   <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
@@ -524,6 +524,18 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -728,21 +740,24 @@
     <t>78.00</t>
   </si>
   <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>78.0000</t>
   </si>
   <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -1001,7 +1016,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:32 PM</t>
+    <t>Tuesday, 12 August, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2467,7 +2482,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2484,7 +2499,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -3226,7 +3241,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3236,11 +3251,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3252,7 +3267,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3269,14 +3284,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3285,14 +3300,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3302,14 +3317,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3318,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3368,11 +3383,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3384,7 +3399,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3401,11 +3416,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3417,7 +3432,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3450,7 +3465,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3500,11 +3515,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3533,11 +3548,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,11 +3581,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3582,7 +3597,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3599,11 +3614,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>22</v>
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,14 +3647,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,14 +3680,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,14 +3746,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,14 +3779,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,14 +3845,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,14 +3861,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,14 +3944,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,14 +3977,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3978,7 +3993,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3995,11 +4010,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,11 +4043,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,11 +4076,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -4077,7 +4092,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4090,7 +4105,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4117,21 +4132,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,11 +4175,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,11 +4208,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,14 +4241,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,11 +4274,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>107</v>
@@ -4275,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4308,28 +4323,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4341,28 +4356,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4374,31 +4389,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4407,28 +4422,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4440,31 +4455,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4473,31 +4488,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4506,31 +4521,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4539,14 +4554,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,11 +4571,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4572,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4589,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4605,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4638,14 +4653,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,11 +4670,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4671,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,14 +4703,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4704,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,14 +4736,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4737,7 +4752,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4754,11 +4769,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4770,28 +4785,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4803,28 +4818,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>87</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4836,28 +4851,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>97</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4869,28 +4884,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4902,28 +4917,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>286</v>
+        <v>107</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4935,31 +4950,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,31 +4983,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,31 +5016,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>297</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5034,7 +5049,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5047,18 +5062,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>140</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5067,31 +5082,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>57</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>53</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5100,31 +5115,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5133,28 +5148,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5166,28 +5181,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5199,28 +5214,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5232,28 +5247,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>57</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5265,28 +5280,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5298,28 +5313,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5331,28 +5346,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>319</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5364,28 +5379,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>314</v>
+        <v>53</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5397,28 +5412,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5430,28 +5445,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5463,7 +5478,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5476,18 +5491,18 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5496,31 +5511,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>326</v>
+        <v>53</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5529,28 +5544,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>22</v>
@@ -5562,66 +5577,99 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>333</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>334</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>234</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>273</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6455.4049999999997</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>330</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>331</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>332</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>6527.3149999999996</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>335</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>336</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>337</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6230,10 +6278,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -851,6 +851,9 @@
     <t>205.0000</t>
   </si>
   <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -1016,7 +1019,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:35 PM</t>
+    <t>Tuesday, 12 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4693,7 +4696,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4707,10 +4710,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4798,15 +4801,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4818,28 +4821,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4858,7 +4861,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,11 +4871,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>119</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4884,14 +4887,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,11 +4904,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>98</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4924,7 +4927,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,11 +4937,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4950,14 +4953,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>107</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,11 +4970,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4983,14 +4986,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>57</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,14 +5003,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,14 +5019,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,14 +5036,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,14 +5052,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,14 +5069,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,7 +5085,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5099,14 +5102,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>140</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,14 +5118,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5132,14 +5135,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>53</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,14 +5151,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5165,14 +5168,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,14 +5184,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,11 +5201,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5214,14 +5217,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,11 +5234,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5247,14 +5250,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>57</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,11 +5267,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5287,7 +5290,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,11 +5300,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5313,14 +5316,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,11 +5333,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5353,7 +5356,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,11 +5366,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5386,7 +5389,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,11 +5399,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5412,14 +5415,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,11 +5432,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5452,7 +5455,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,11 +5465,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5485,7 +5488,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5495,11 +5498,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>22</v>
@@ -5528,14 +5531,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5544,14 +5547,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5561,14 +5564,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5577,14 +5580,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5594,11 +5597,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>22</v>
@@ -5617,7 +5620,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>334</v>
+        <v>128</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5627,49 +5630,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>334</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>335</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>234</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>273</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>6527.3149999999996</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>335</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c t="s" r="Q128" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6607.3149999999996</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>336</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
         <v>337</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>338</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6283,10 +6319,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -710,6 +710,21 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:46</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELANTA  20TAB</t>
   </si>
   <si>
@@ -833,6 +848,12 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -1019,7 +1040,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:38 PM</t>
+    <t>Tuesday, 12 August, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4135,13 +4156,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4152,7 +4173,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4161,28 +4182,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4194,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4211,11 +4232,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4227,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4244,14 +4265,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4260,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4277,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4293,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4310,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>107</v>
@@ -4326,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4343,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4359,28 +4380,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4392,28 +4413,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4425,31 +4446,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4458,28 +4479,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4491,31 +4512,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4524,31 +4545,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4557,31 +4578,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>62</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4590,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4607,11 +4628,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4623,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4640,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4656,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4689,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4706,14 +4727,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4722,14 +4743,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4739,14 +4760,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4755,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4772,11 +4793,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4788,31 +4809,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4821,7 +4842,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4838,11 +4859,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4854,28 +4875,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4887,28 +4908,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4920,28 +4941,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4953,28 +4974,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4986,28 +5007,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -5019,31 +5040,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5052,28 +5073,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5085,7 +5106,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5098,18 +5119,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>303</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5125,24 +5146,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5151,20 +5172,20 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5175,7 +5196,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>53</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5184,31 +5205,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5224,24 +5245,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5250,28 +5271,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5283,28 +5304,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5316,28 +5337,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5349,28 +5370,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5382,28 +5403,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>43</v>
+        <v>327</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5415,28 +5436,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5448,28 +5469,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5481,28 +5502,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>160</v>
+        <v>331</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>22</v>
@@ -5514,28 +5535,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5547,31 +5568,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>311</v>
+        <v>160</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5580,20 +5601,20 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
@@ -5601,7 +5622,7 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>22</v>
@@ -5613,31 +5634,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5646,66 +5667,132 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>340</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>128</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>239</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>293</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>341</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>342</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>239</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>278</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q128" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6607.3149999999996</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>336</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>337</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>338</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c t="s" r="Q130" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>6752.5150000000003</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>343</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>344</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>345</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6324,10 +6411,20 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -206,6 +206,9 @@
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -464,9 +467,6 @@
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:42 PM</t>
+    <t>Tuesday, 12 August, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2143,7 +2143,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2186,11 +2186,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -2202,14 +2202,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -2235,14 +2235,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2252,11 +2252,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2285,11 +2285,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2318,11 +2318,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2351,11 +2351,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -2367,14 +2367,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2384,11 +2384,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2417,11 +2417,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2483,11 +2483,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>37</v>
@@ -2532,14 +2532,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2549,11 +2549,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2582,11 +2582,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2598,14 +2598,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2631,14 +2631,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2714,11 +2714,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2730,14 +2730,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2763,14 +2763,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>37</v>
@@ -2796,14 +2796,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2862,14 +2862,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2912,11 +2912,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2928,14 +2928,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2945,11 +2945,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2978,14 +2978,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3027,14 +3027,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3067,7 +3067,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3117,7 +3117,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3176,11 +3176,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -3298,7 +3298,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3496,7 +3496,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3539,11 +3539,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3595,7 +3595,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3605,11 +3605,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3793,7 +3793,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3869,11 +3869,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3958,7 +3958,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3991,7 +3991,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4338,7 +4338,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4364,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4618,7 +4618,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4764,10 +4764,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4892,11 +4892,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4948,7 +4948,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,11 +4958,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -5024,11 +5024,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -5047,7 +5047,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5146,7 +5146,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5229,7 +5229,7 @@
         <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5443,7 +5443,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5575,7 +5575,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5658,7 +5658,7 @@
         <v>337</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5707,7 +5707,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -665,6 +665,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>OXITROPIL 1200 MG 60 TAB</t>
   </si>
   <si>
@@ -884,6 +890,15 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
+    <t>ببرونه الجو كبيره</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -965,12 +980,6 @@
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
@@ -1040,7 +1049,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 9:55 PM</t>
+    <t>Tuesday, 12 August, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3958,7 +3967,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3991,7 +4000,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,14 +4010,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,14 +4043,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,7 +4059,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4067,7 +4076,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4090,7 +4099,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,7 +4109,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4123,7 +4132,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,11 +4142,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -4149,14 +4158,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,31 +4191,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,28 +4224,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,11 +4274,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,7 +4373,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4387,7 +4396,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4420,21 +4429,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4446,28 +4455,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4479,31 +4488,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,28 +4521,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4545,31 +4554,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4578,31 +4587,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,31 +4620,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,11 +4670,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>29</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4717,7 +4726,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,14 +4769,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4783,7 +4792,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,14 +4802,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4816,7 +4825,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,14 +4835,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4842,14 +4851,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,14 +4868,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4875,7 +4884,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4888,15 +4897,15 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>98</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4908,7 +4917,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4921,15 +4930,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>98</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4948,21 +4957,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4974,28 +4983,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -5007,28 +5016,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -5047,21 +5056,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -5073,28 +5082,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5113,24 +5122,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,20 +5148,20 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5160,7 +5169,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5172,7 +5181,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5185,18 +5194,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>310</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,31 +5214,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>141</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,31 +5247,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>57</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>53</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,31 +5280,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,31 +5313,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5337,28 +5346,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5370,28 +5379,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5416,15 +5425,15 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5443,21 +5452,21 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5476,21 +5485,21 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5502,28 +5511,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>22</v>
@@ -5535,28 +5544,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5568,28 +5577,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>160</v>
+        <v>334</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>22</v>
@@ -5601,28 +5610,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>22</v>
@@ -5634,31 +5643,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>337</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5674,21 +5683,21 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>22</v>
@@ -5700,31 +5709,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5746,53 +5755,119 @@
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>343</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>129</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>241</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>298</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>344</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>345</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>241</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>280</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>6752.5150000000003</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>343</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>344</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>345</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c t="s" r="Q132" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>6813.5150000000003</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>346</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>347</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>348</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6421,10 +6496,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -407,6 +416,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -809,6 +827,15 @@
     <t>17.0950</t>
   </si>
   <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
     <t>TOPI-GENT SEBUM CLEANSING FOAM 150 ML</t>
   </si>
   <si>
@@ -896,9 +923,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -962,9 +986,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>شامبو كلير 1 كيس</t>
   </si>
   <si>
@@ -1049,7 +1070,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:01 PM</t>
+    <t>Tuesday, 12 August, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2020,7 +2041,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2037,7 +2058,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2053,7 +2074,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2096,11 +2117,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2129,11 +2150,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2202,7 +2223,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2218,7 +2239,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2228,7 +2249,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -2261,11 +2282,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2301,7 +2322,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2350,7 +2371,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2367,7 +2388,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2383,7 +2404,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2393,11 +2414,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2433,7 +2454,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2449,7 +2470,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2499,7 +2520,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2515,7 +2536,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2532,7 +2553,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2548,7 +2569,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2591,11 +2612,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2624,11 +2645,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2657,7 +2678,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2690,14 +2711,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2713,7 +2734,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2746,7 +2767,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2862,7 +2883,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2878,7 +2899,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,11 +2909,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,14 +2975,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>147</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3076,7 +3097,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3093,7 +3114,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3168,14 +3189,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3185,14 +3206,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,14 +3222,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,11 +3239,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3251,11 +3272,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3288,10 +3309,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3317,11 +3338,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3357,7 +3378,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3406,7 +3427,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3439,7 +3460,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3456,7 +3477,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3472,7 +3493,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3505,7 +3526,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3522,7 +3543,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3538,7 +3559,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,11 +3569,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,11 +3635,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3630,14 +3651,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,11 +3668,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>22</v>
@@ -3663,14 +3684,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3680,11 +3701,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>22</v>
@@ -3696,14 +3717,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,14 +3734,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3729,14 +3750,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3746,11 +3767,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>22</v>
@@ -3762,14 +3783,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3779,14 +3800,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3795,14 +3816,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3812,14 +3833,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3828,14 +3849,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,14 +3866,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3861,14 +3882,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3878,14 +3899,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3894,14 +3915,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,14 +3932,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>214</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3944,14 +3965,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3967,7 +3988,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3977,14 +3998,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3993,14 +4014,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4010,14 +4031,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4026,14 +4047,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,14 +4064,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,14 +4080,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,14 +4097,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4099,7 +4120,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4109,14 +4130,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4125,14 +4146,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,11 +4163,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -4158,14 +4179,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,11 +4196,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4191,14 +4212,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,14 +4229,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>239</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4224,28 +4245,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4257,14 +4278,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,14 +4295,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4290,28 +4311,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4323,14 +4344,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,14 +4361,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4363,7 +4384,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4380,7 +4401,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4396,7 +4417,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,14 +4427,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4422,14 +4443,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4460,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4455,31 +4476,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4488,14 +4509,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4505,11 +4526,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4521,31 +4542,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4554,7 +4575,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4567,18 +4588,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4587,31 +4608,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4627,13 +4648,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4660,7 +4681,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4691,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>63</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4707,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,11 +4724,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4719,31 +4740,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4752,14 +4773,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,11 +4790,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4785,14 +4806,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4823,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,14 +4839,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4856,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,14 +4872,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4868,14 +4889,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4884,14 +4905,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,14 +4922,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4917,28 +4938,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>99</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4950,14 +4971,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +4988,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,28 +5004,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -5016,28 +5037,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -5049,28 +5070,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>60</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -5082,28 +5103,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5115,28 +5136,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5148,28 +5169,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5181,31 +5202,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>101</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5221,21 +5242,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5247,20 +5268,20 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>57</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5268,10 +5289,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>315</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,31 +5301,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>141</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5313,31 +5334,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5346,31 +5367,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>22</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5379,31 +5400,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5412,31 +5433,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5445,28 +5466,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5478,28 +5499,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>330</v>
+        <v>43</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5511,28 +5532,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>22</v>
@@ -5544,28 +5565,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5577,28 +5598,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>22</v>
@@ -5610,28 +5631,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>330</v>
+        <v>147</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>22</v>
@@ -5643,28 +5664,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>160</v>
+        <v>313</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>22</v>
@@ -5676,28 +5697,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>22</v>
@@ -5709,31 +5730,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5742,28 +5763,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>342</v>
+        <v>113</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>22</v>
@@ -5775,28 +5796,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>22</v>
@@ -5808,66 +5829,165 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>345</v>
+        <v>56</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>347</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>348</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>349</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>247</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>313</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>350</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>132</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>247</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>306</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>351</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>352</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>247</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>289</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>24</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>6813.5150000000003</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>346</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>347</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>348</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c t="s" r="Q135" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7010.2550000000001</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>353</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>354</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>355</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6506,10 +6626,25 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -1070,7 +1070,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:04 PM</t>
+    <t>Tuesday, 12 August, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-12_00-00.xlsx
+++ b/DaySale_2025-08-12_00-00.xlsx
@@ -344,177 +344,180 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-18.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-18.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
@@ -1070,7 +1073,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Tuesday, 12 August, 2025 10:06 PM</t>
+    <t>Tuesday, 12 August, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2635,7 +2638,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2649,10 +2652,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -3213,7 +3216,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>111</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3222,7 +3225,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3239,11 +3242,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -3255,7 +3258,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3288,7 +3291,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3305,7 +3308,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3321,7 +3324,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3338,11 +3341,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3354,14 +3357,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3371,11 +3374,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3387,7 +3390,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3404,11 +3407,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3420,7 +3423,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3437,11 +3440,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3453,7 +3456,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3470,11 +3473,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3486,7 +3489,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3519,7 +3522,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3536,11 +3539,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3552,7 +3555,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3585,7 +3588,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3618,7 +3621,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3651,7 +3654,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3684,14 +3687,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3717,7 +3720,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3750,7 +3753,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>22</v>
@@ -3783,7 +3786,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3804,7 +3807,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3816,7 +3819,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3837,7 +3840,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>22</v>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3882,7 +3885,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3915,7 +3918,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3936,7 +3939,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3948,14 +3951,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4005,7 +4008,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4014,7 +4017,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4031,11 +4034,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -4047,7 +4050,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4064,7 +4067,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4080,7 +4083,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4097,11 +4100,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4113,7 +4116,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4130,11 +4133,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>37</v>
@@ -4146,7 +4149,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4163,11 +4166,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -4179,7 +4182,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4200,7 +4203,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4212,7 +4215,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4233,7 +4236,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4245,7 +4248,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4262,11 +4265,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4278,14 +4281,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4295,14 +4298,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4311,7 +4314,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4324,15 +4327,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4365,7 +4368,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4377,7 +4380,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4410,7 +4413,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4427,11 +4430,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4443,7 +4446,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4460,14 +4463,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>111</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4476,7 +4479,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4497,10 +4500,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>111</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4509,7 +4512,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4526,11 +4529,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4542,7 +4545,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4555,15 +4558,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4575,7 +4578,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4592,11 +4595,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4608,7 +4611,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4621,15 +4624,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4641,7 +4644,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4654,15 +4657,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4674,7 +4677,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4691,11 +4694,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4707,7 +4710,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4724,11 +4727,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4740,7 +4743,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4753,15 +4756,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4773,14 +4776,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4806,7 +4809,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4823,11 +4826,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4839,7 +4842,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4860,7 +4863,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>37</v>
@@ -4872,7 +4875,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4905,7 +4908,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4922,14 +4925,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t=